--- a/Metropolitan Roads/18548/res_ITP-014-CIV-CAMMS-Footpaths & Shared User Paths Rev 0.xlsx
+++ b/Metropolitan Roads/18548/res_ITP-014-CIV-CAMMS-Footpaths & Shared User Paths Rev 0.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Metropolitan Roads\18548\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D586BDDB-90C0-4384-A52C-19E37A307CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A834681-C8D6-4490-9785-34D3F7EAC798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4970" yWindow="900" windowWidth="17440" windowHeight="13460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="140" windowWidth="18640" windowHeight="13460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$347</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$685</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="90">
   <si>
     <t>type</t>
   </si>
@@ -288,6 +288,24 @@
   </si>
   <si>
     <t>Post-construction Activities</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Position:</t>
+  </si>
+  <si>
+    <t>signoff</t>
+  </si>
+  <si>
+    <t>Sign ITP</t>
+  </si>
+  <si>
+    <t>On behalf of Metropolitan Roads Program Alliance, it is hereby certified that the Works represented by the item of work listed above have been tested in accordance with the Project Quality Plan and conform in all respects with the requirements of the Contract.</t>
+  </si>
+  <si>
+    <t>Final Inspection</t>
   </si>
 </sst>
 </file>
@@ -1168,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I679"/>
+  <dimension ref="A1:I685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A515" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B529" sqref="B529"/>
+    <sheetView tabSelected="1" topLeftCell="A616" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B639" sqref="B639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6338,8 +6356,56 @@
         <v>15</v>
       </c>
     </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A680" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B680" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A681" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B681" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A682" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B682" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A683" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B683" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A684" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B684" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A685" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B685" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I347" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I685" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Metropolitan Roads/18548/res_ITP-014-CIV-CAMMS-Footpaths & Shared User Paths Rev 0.xlsx
+++ b/Metropolitan Roads/18548/res_ITP-014-CIV-CAMMS-Footpaths & Shared User Paths Rev 0.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Metropolitan Roads\18548\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A834681-C8D6-4490-9785-34D3F7EAC798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69621918-F88D-4124-8CE9-874BC3DB9AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="140" windowWidth="18640" windowHeight="13460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="18640" windowHeight="13460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$685</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$810</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="309">
   <si>
     <t>type</t>
   </si>
@@ -161,12 +161,6 @@
     <t xml:space="preserve">Revision Date: </t>
   </si>
   <si>
-    <t xml:space="preserve">Document Number (in Teambinder): </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">REFERENCE: </t>
   </si>
   <si>
@@ -194,99 +188,15 @@
     <t xml:space="preserve">VERIFYING DOCUMENTS: </t>
   </si>
   <si>
-    <t xml:space="preserve">2.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4 </t>
-  </si>
-  <si>
     <t>Preliminaries - Documents</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 </t>
-  </si>
-  <si>
     <t>Pre-Construction Activities</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1 </t>
-  </si>
-  <si>
     <t>Construction Activities</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20 </t>
-  </si>
-  <si>
     <t>Post-construction Activities</t>
   </si>
   <si>
@@ -306,6 +216,753 @@
   </si>
   <si>
     <t>Final Inspection</t>
+  </si>
+  <si>
+    <t>2.1 Bedding Material Placement &amp; Compaction</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings:</t>
+  </si>
+  <si>
+    <t>MRP-052-C-SME-DRG-13-MPK-CPT-0101 &amp; MRP-052-C-SME-DRG-13-MPK-CPT-0102</t>
+  </si>
+  <si>
+    <t>• MRP-052-C-SME-DRG-13-MPK-CPT-0101 &amp; MRP-052-C-SME-DRG-13-MPK-CPT-0102</t>
+  </si>
+  <si>
+    <t>• 812.04, 703.21</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA:  Footpaths: SIZE 20mm CLASS 3 CRUSHED ROCK</t>
+  </si>
+  <si>
+    <t>METHOD: Document Review</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each Lot</t>
+  </si>
+  <si>
+    <t>CATEGORY: HP</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Nominated Authority</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: ConQA Hold Point Release</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>NOMINATED HOLDPOINT AUTHORITY</t>
+  </si>
+  <si>
+    <t>2.2 Concrete Mix</t>
+  </si>
+  <si>
+    <t>• SUP: SIZE 40mm CLASS 3 CRUSHED ROCK</t>
+  </si>
+  <si>
+    <t>• Material is registered with VicRoads in accordance with Code of Practice RC500.02.</t>
+  </si>
+  <si>
+    <t>• Enter: Teambinder Material Approval number</t>
+  </si>
+  <si>
+    <t>• 703.05 (a), 703.07</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Concrete mix meets strength, grade, and maximum aggregate size as detailed on the drawings:</t>
+  </si>
+  <si>
+    <t>• No air entraining chemical admixtures shall be used without approval from the Nominated Authority.</t>
+  </si>
+  <si>
+    <t>— Industrial Crossovers: VR330/32 to be registered by Vicroads</t>
+  </si>
+  <si>
+    <t>— Traffic Islands: 32 Mpa</t>
+  </si>
+  <si>
+    <t>— SUP: VR330/32</t>
+  </si>
+  <si>
+    <t>— Footpaths, Residential driveways and Median islands infills: 25Mpa</t>
+  </si>
+  <si>
+    <t>2.3 Reinforcement</t>
+  </si>
+  <si>
+    <t>• 703.16</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Reinforcement shall comply with AS4671.</t>
+  </si>
+  <si>
+    <t>• Alternatively, provide a current ACRS certification for materials and for bar processing (as this covers a higher certification)</t>
+  </si>
+  <si>
+    <t>• Following steel mesh requirements shall apply as per IFC Drawings:</t>
+  </si>
+  <si>
+    <t>— Footpaths, Residential driveways and Median islands infills: SL72</t>
+  </si>
+  <si>
+    <t>— Industrial Crossovers: SL82</t>
+  </si>
+  <si>
+    <t>— Traffic Islands: SL72</t>
+  </si>
+  <si>
+    <t>— SUP: SL82</t>
+  </si>
+  <si>
+    <t>2.4 Evaporative Retardant</t>
+  </si>
+  <si>
+    <t>REFERENCE: 703.09</t>
+  </si>
+  <si>
+    <t>610.17 (f)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Details of evaporative retardant, application procedure (including application rates) to be submitted for review to the Nominated Authority.</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Once, for each product, prior to placement of concrete</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: This ITP</t>
+  </si>
+  <si>
+    <t>2.5 Curing Compound</t>
+  </si>
+  <si>
+    <t>REFERENCE: 703.10 (a)</t>
+  </si>
+  <si>
+    <t>610.23 (d)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Details of curing compound and NATA test certificate stating compliance with AS3799 no more than 3 years from issue, to be submitted for review to the Nominated Authority.</t>
+  </si>
+  <si>
+    <t>3.1 Survey Set-out</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings</t>
+  </si>
+  <si>
+    <t>703.17</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: The work shall be constructed in accordance with the confirmed set out to the line and level and cross-sectional profiles as shown on the drawings.</t>
+  </si>
+  <si>
+    <t>• The Nominated Authority will review and confirm the set out.</t>
+  </si>
+  <si>
+    <t>• Attach: Survey Report</t>
+  </si>
+  <si>
+    <t>METHOD: Document Review, Measure, Visual</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each lot</t>
+  </si>
+  <si>
+    <t>3.2 Lot Map</t>
+  </si>
+  <si>
+    <t>REFERENCE: MRPA Lot Management Plan</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Attach Marked drawing indicating the location of this Lot</t>
+  </si>
+  <si>
+    <t>• Attach: Lot Map</t>
+  </si>
+  <si>
+    <t>METHOD: Document</t>
+  </si>
+  <si>
+    <t>CATEGORY: HP*</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: SE/PE</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: Attached Lot Map</t>
+  </si>
+  <si>
+    <t>4.1 Site Clearing &amp; Grubbing</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: If not completed during the site establishment, the work area needs to be cleared and grubbed.</t>
+  </si>
+  <si>
+    <t>• Complete: Site Clearing &amp; Grubbing ITP before proceeding with this ITP.2</t>
+  </si>
+  <si>
+    <t>METHOD: Visual</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Where applicable</t>
+  </si>
+  <si>
+    <t>CATEGORY: IP</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: SE/PE/SPE</t>
+  </si>
+  <si>
+    <t>4.2 IFC Drawings</t>
+  </si>
+  <si>
+    <t>REFERENCE: MRPA Quality Management Plan</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Ensure that all employee and sub contractors are:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">— Using  the correct and complete set of drawings </t>
+  </si>
+  <si>
+    <t>FREQUENCY: Prior to starting Works and at regular intervals</t>
+  </si>
+  <si>
+    <t>5.1 Excavation</t>
+  </si>
+  <si>
+    <t>REFERENCE: 703.20</t>
+  </si>
+  <si>
+    <t>IFC Drawings</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Excavation shall be to a sufficient depth to allow for the required compacted thickness of bedding material under the full width of concrete paving.</t>
+  </si>
+  <si>
+    <t>• Where it is necessary to excavate existing pavement, the excavation shall not extend more than 150 mm from the edge of the adjacent face.</t>
+  </si>
+  <si>
+    <t>• Existing asphalt or bituminous surfacing shall be saw cut for a sufficient depth to produce a neat vertical face.</t>
+  </si>
+  <si>
+    <t>5.2 Excavation-Pavement Thickness Increases for Crossings</t>
+  </si>
+  <si>
+    <t>Relevant Council drawings:</t>
+  </si>
+  <si>
+    <t>• EDCM 501</t>
+  </si>
+  <si>
+    <t>• EDCM 502</t>
+  </si>
+  <si>
+    <t>• EDCM 503</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Where applicable, excavation to allow for increase in the bedding and slab thicknesses at crossing.</t>
+  </si>
+  <si>
+    <t>• Consult the Relevant Council drawings for dimensional tolerances for thicknesses, grades and ramp lengths.</t>
+  </si>
+  <si>
+    <t>METHOD: Visual, Measure</t>
+  </si>
+  <si>
+    <t>Document Number (in Teambinder): MRP-0000-MRPA-ALT-ITP-00XX</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Where applicable, each lot</t>
+  </si>
+  <si>
+    <t>5.3 Bedding Material Placement &amp; Compaction</t>
+  </si>
+  <si>
+    <t>REFERENCE: 703.21 IFC Drawings</t>
+  </si>
+  <si>
+    <t>IFC Drawings:</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Place bedding material to the minimum thicknesses (post-compaction) as per the IFC drawings:</t>
+  </si>
+  <si>
+    <t>• Footpath: Bedding shall  100 mm compacted thickness</t>
+  </si>
+  <si>
+    <t>• SUP: Bedding shall be 150 mm compacted thickness</t>
+  </si>
+  <si>
+    <t>• Bedding shall be trimmed to the appropriate levels, moistened as necessary, and firmly compacted.</t>
+  </si>
+  <si>
+    <t>• The foundation shall be true to grade and cross section as shown on the drawings by filling and excavating as necessary.</t>
+  </si>
+  <si>
+    <t>• All soft wet or unstable material shall be removed to a depth of not less than 100 mm below the design level of the underside of bedding and filled with bedding material moistened and compacted to form a stable foundation.</t>
+  </si>
+  <si>
+    <t>• Attach: Bedding Material Delivery Dockets</t>
+  </si>
+  <si>
+    <t>5.4 Shared User Path - Compaction Testing</t>
+  </si>
+  <si>
+    <t>REFERENCE: 703.21</t>
+  </si>
+  <si>
+    <t>304.08 (a) &amp; (b)</t>
+  </si>
+  <si>
+    <t>304.11 (a)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Compaction shall meet the following requirements:</t>
+  </si>
+  <si>
+    <t>• Scale of Surface Level Measurement = Scale C</t>
+  </si>
+  <si>
+    <t>• Material during compaction shall have a moisture content of not less than 85% of optimum. (1 test)</t>
+  </si>
+  <si>
+    <t>• Mean Value of Density Ratio % (3 tests) not less than 100%</t>
+  </si>
+  <si>
+    <t>• Attach: Moisture Content Test Results</t>
+  </si>
+  <si>
+    <t>• Attach: Mean Value of Density Ratio</t>
+  </si>
+  <si>
+    <t>METHOD: Document Review, Visual</t>
+  </si>
+  <si>
+    <t>5.5 Shared User Path - Proof-rolling</t>
+  </si>
+  <si>
+    <t>304.08 (b)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Bedding material to be compacted and proof rolled before any construction.</t>
+  </si>
+  <si>
+    <t>• Withstands Test rolling without visible deformation or springing.</t>
+  </si>
+  <si>
+    <t>5.6 Formwork Construction &amp; Placement</t>
+  </si>
+  <si>
+    <t>703.12</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Formwork is designed and constructed in such a manner so it can be removed without damage to the concrete.</t>
+  </si>
+  <si>
+    <t>• Formwork to be rigid, braced, full depth of the concrete &amp; tied together to restrict movement during concreting operations to maintain dimensional conformance.</t>
+  </si>
+  <si>
+    <t>• Joints in formwork shall be constructed such that loss of mortar is prevented.</t>
+  </si>
+  <si>
+    <t>• Prior to placing concrete in an earth excavation, formwork shall be erected so that fresh concrete is not placed directly against the sides of the excavation.</t>
+  </si>
+  <si>
+    <t>5.7 Construction Joints &amp; Matching Existing Surfaces</t>
+  </si>
+  <si>
+    <t>Relevant Council Standard DrawingsRelevant Council drawings:</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings 703.24</t>
+  </si>
+  <si>
+    <t>• EDSM 401</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Where applicable, construction joints shall be placed where the new construction ties into existing structures.</t>
+  </si>
+  <si>
+    <t>i. Concrete cutting of a shear-key</t>
+  </si>
+  <si>
+    <t>ii. Surface roughening</t>
+  </si>
+  <si>
+    <t>iii. Drilling and insertion of dowel bars (may also be galvanised)</t>
+  </si>
+  <si>
+    <t>iv. Cutting a groove for sealant</t>
+  </si>
+  <si>
+    <t>• Where it is necessary to join to an existing section of profile different from that being constructed, the change of profile shall be made at a constant rate between 10 and 20 mm per metre.</t>
+  </si>
+  <si>
+    <t>• Transitions between different profiles shall be made in accordance with the drawings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Matching of new to existing concrete paving shall be such that it appears identical to the existing section.  </t>
+  </si>
+  <si>
+    <t>• Consult the relevant Council Standard drawings for the joint detail, these may require:</t>
+  </si>
+  <si>
+    <t>5.8 Isolation Joints</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings 703.26 (c)</t>
+  </si>
+  <si>
+    <t>Relevant Council Standard Drawings</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Where applicable, isolation joints shall be placed:</t>
+  </si>
+  <si>
+    <t>i. around all abutting structures such as pits, utility services, power poles, kerbs and other such features</t>
+  </si>
+  <si>
+    <t>ii. at any location marked on the drawings</t>
+  </si>
+  <si>
+    <t>• The joint shall be made with a compressible material extending for the full width and full depth of the paving and secured into position prior to concrete operations.</t>
+  </si>
+  <si>
+    <t>5.9 Expansion Joints</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings 703.26 (a) (ii) &amp; (b) (i)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Where applicable, expansion joints shall be placed:</t>
+  </si>
+  <si>
+    <t>i. on either side of vehicle crossings</t>
+  </si>
+  <si>
+    <t>ii. at junctions with existing footpaths and shared use paths</t>
+  </si>
+  <si>
+    <t>iii. at junctions with bridges</t>
+  </si>
+  <si>
+    <t>iv. at intervals not exceeding the Council maximum spacings (typically 12m).</t>
+  </si>
+  <si>
+    <t>• Dowels shall be installed in accordance with the details and locations as shown on the relevant Council Drawings.</t>
+  </si>
+  <si>
+    <t>• Alternatively, a proprietary joint system may be used, but ensure that the top of the system is flush with the formwork at each side to prevent future trip-hazards.</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Foreman, SE/PE/SPE</t>
+  </si>
+  <si>
+    <t>5.10 Reinforcement Placement</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings 703.13</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: The correct mesh type and location as shown on the IFC drawings.</t>
+  </si>
+  <si>
+    <t>• Minimum cover of 50mm at edges has been achieved (including tie wire locations).</t>
+  </si>
+  <si>
+    <t>• Any splice lengths achieve the minimum length and are in contact for this length.</t>
+  </si>
+  <si>
+    <t>• The reinforcement surface condition is free from dirt, debris and damage.</t>
+  </si>
+  <si>
+    <t>• The resulting cage securely held with sufficient ties and/or bar chairs to limit displacement or deformation during the concrete pour (typically 900mm crs maximum).</t>
+  </si>
+  <si>
+    <t>• Wire chairs with or without plastic tips, bricks or pieces of timber or coarse aggregate shall NOT be used to support steel reinforcement.</t>
+  </si>
+  <si>
+    <t>METHOD: Measure, Visual</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each element</t>
+  </si>
+  <si>
+    <t>5.11 Pre-pour Survey</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings 703.15</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: A pre-pour survey carried out by a surveyor.</t>
+  </si>
+  <si>
+    <t>Erected formwork and base layer within the tolerances below:</t>
+  </si>
+  <si>
+    <t>• Rate of change of deviation from RL or alignment = 10mm in 10m</t>
+  </si>
+  <si>
+    <t>• Section dimensions = ±5mm</t>
+  </si>
+  <si>
+    <t>• Section dimensions (less than 25mm) = ±3mm</t>
+  </si>
+  <si>
+    <t>• Width of pavement = -5mm, +15mm</t>
+  </si>
+  <si>
+    <t>• Departure from RL = ±10mm</t>
+  </si>
+  <si>
+    <t>• Departure from alignment = ±10mm</t>
+  </si>
+  <si>
+    <t>• Irregularities in alignment = 5mm in 3m</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Surveyor, SE/PE/SPE</t>
+  </si>
+  <si>
+    <t>5.12 Pre-pour Inspection</t>
+  </si>
+  <si>
+    <t>Section 610.17a), b) &amp; c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFERENCE: Section 703.09  </t>
+  </si>
+  <si>
+    <t>Section 703.21</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Inspection to ensure that forms, reinforcement, joints, dowels and other embedments conform to the requirements of the specifications and drawings.</t>
+  </si>
+  <si>
+    <t>• Immediately before concrete is placed, the bedding shall be moist but shall have no free water on the surface.</t>
+  </si>
+  <si>
+    <t>5.13 Weather Conditions &amp; Evaporation Limits</t>
+  </si>
+  <si>
+    <t>610.17 (a - f)</t>
+  </si>
+  <si>
+    <t>Table 610.171</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Concrete shall not be placed when the air temperature at the point of placement is less than 5°C or greater than 35°C.</t>
+  </si>
+  <si>
+    <t>Record: Required information on the Concrete Pour Record.</t>
+  </si>
+  <si>
+    <t>• The temperature of concrete, measured immediately prior to placing, shall not be less than 10°C or greater than 32°C.</t>
+  </si>
+  <si>
+    <t>• The air temperature, relative humidity, concrete temperature and wind velocity are measured to determine the evaporation rate of water from the concrete.</t>
+  </si>
+  <si>
+    <t>• When the evaporation rate exceeds 0.50 kg/m²/hr apply evaporation retardant at the rates specified on the manufacturer’s TDS.</t>
+  </si>
+  <si>
+    <t>• Record: Required information on the Concrete Pour Record.</t>
+  </si>
+  <si>
+    <t>5.14 Concrete Testing - Sampling Frequencies-Footpath</t>
+  </si>
+  <si>
+    <t>REFERENCE: 703.11</t>
+  </si>
+  <si>
+    <t>AS 1379-2007 Clause 6.2</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: The frequency of sampling and testing shall provide at least one sample at the point of discharge to be tested of each 50 m3 or part thereof of each strength grade placed on any one day. Where less than 50 m³ is provided for any one day then one sample shall be tested of each strength grade</t>
+  </si>
+  <si>
+    <t>• Correct quantity of cylinders manufactured per sample.</t>
+  </si>
+  <si>
+    <t>METHOD: Test</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Concrete Tester, Foreman, SE/PE/SPE</t>
+  </si>
+  <si>
+    <t>5.15 Concrete Testing - Sampling Frequencies-SUP</t>
+  </si>
+  <si>
+    <t>610.16 (b)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Concrete cast in one continuous operation to be tested at a frequency as shown below:</t>
+  </si>
+  <si>
+    <t>Shared User Path:</t>
+  </si>
+  <si>
+    <t>Footpaths:</t>
+  </si>
+  <si>
+    <t>• 0m3 to 10m3 = 1 sample</t>
+  </si>
+  <si>
+    <t>• 10m3 to 25m3 = 2 samples</t>
+  </si>
+  <si>
+    <t>• 25m3 to 50m3 = 3 samples</t>
+  </si>
+  <si>
+    <t>• 50m3 to 100m3 = 4 samples + 2 no. VPV cylinders.</t>
+  </si>
+  <si>
+    <t>• For each additional 50m3 and additional sample shall be taken.</t>
+  </si>
+  <si>
+    <t>• Each sample shall consist of 1 no. slump test and 3 no. compressive strength cylinders minimum.</t>
+  </si>
+  <si>
+    <t>• Compressive strength cylinders = 1 no. 7 day strength, 2 no. 28 day strength.</t>
+  </si>
+  <si>
+    <t>• 0m3 to 50m3 = 1 sample</t>
+  </si>
+  <si>
+    <t>• Each sample shall consist of 1 no. slump test and 2 no. compressive strength cylinders minimum.</t>
+  </si>
+  <si>
+    <t>• Compressive strength cylinders = 2 no. 28 day strength.</t>
+  </si>
+  <si>
+    <t>5.16 Concrete Testing - Slump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">610.16 (c) </t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Slump testing tolerances =</t>
+  </si>
+  <si>
+    <t>&lt;60mm = ±10mm</t>
+  </si>
+  <si>
+    <t>≥60mm to ≤80mm = ±15mm</t>
+  </si>
+  <si>
+    <t>&gt;80mm to ≤110mm = ±20mm</t>
+  </si>
+  <si>
+    <t>&gt;110mm to ≤150mm = ±30mm</t>
+  </si>
+  <si>
+    <t>&gt;150mm = ±40mm</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each sample</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Concrete Tester</t>
+  </si>
+  <si>
+    <t>5.17 Placement &amp; Compaction</t>
+  </si>
+  <si>
+    <t>REFERENCE: 703.08</t>
+  </si>
+  <si>
+    <t>Attach: Concrete Pour Record</t>
+  </si>
+  <si>
+    <t>Attach: Concrete Dockets</t>
+  </si>
+  <si>
+    <t>• All concrete batches are traceable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Concrete shall be transported, handled and placed to prevent segregation, loss or leakage of materials.  </t>
+  </si>
+  <si>
+    <t>• Where concrete pumps are used, the initial discharge is pumped to waste until a consistent workable mix is discharged.</t>
+  </si>
+  <si>
+    <t>• Fresh concrete shall not be placed against concrete which has taken its initial set, except at properly formed construction joints.</t>
+  </si>
+  <si>
+    <t>• Concrete shall be thoroughly compacted by means of continuous tamping and internal vibration and shall be worked around any embedments and into corners of formwork or excavations to produce a dense concrete free from voids, honeycombing, segregation or surface defects.</t>
+  </si>
+  <si>
+    <t>• Unformed surfaces shall be hand tamped to ensure a smooth surface with a uniform colour and appearance, and screeded to achieve the specified level, dimensions, falls and tolerances.</t>
+  </si>
+  <si>
+    <t>• Vibration continued at each point until air bubbles cease to emerge from the concrete.</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each load</t>
+  </si>
+  <si>
+    <t>CATEGORY: SP</t>
+  </si>
+  <si>
+    <t>5.18 Surface Finishes</t>
+  </si>
+  <si>
+    <t>Relevant Council Drawings</t>
+  </si>
+  <si>
+    <t>703.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCEPTANCE CRITERIA: Fresh concrete shall be compacted with internal vibration and worked until all the coarse aggregate is below the surface and the mortar comes to the top. </t>
+  </si>
+  <si>
+    <t>• It shall then be struck off and finished to grade and cross section with a wooden float to produce a lightly textured non skid surface.  All outside edges of slabs and all joints shall be finished with a suitable edging tool.</t>
+  </si>
+  <si>
+    <t>• Permanently hidden concrete surfaces of concrete paving including footpaths, edgings, other concrete surfacing, and shared use paths shall have a Class 4 surface finish in accordance with AS 3610.</t>
+  </si>
+  <si>
+    <t>• After finishing, all work shall present a consistently neat appearance of uniform colour.  All edges shall be sharp and clean and bullnoses shall be regular and of uniform radius.  All discoloured concrete shall be cleaned or replaced by the Contractor.</t>
+  </si>
+  <si>
+    <t>• All other concrete elements constructed with reference to Section 703 shall have a Class 3 surface finish for external surfaces and a Class 4 surface finish for permanently hidden surfaces</t>
+  </si>
+  <si>
+    <t>5.19 Footpaths - Crack-control Joints / Weaken Plane Joints</t>
+  </si>
+  <si>
+    <t>703.26 (b) (ii)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Crack-control joints shall be finished with a suitable edging tool, full-width of the pavement to the required depth and locations and/or longitudinal spacings as shown on the drawings.</t>
+  </si>
+  <si>
+    <t>5.20 Curing</t>
+  </si>
+  <si>
+    <t>REFERENCE: 703.10</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: The curing of exposed concrete surfaces shall commence immediately after finishing operations are progressively completed either by water curing, wet hessian, polyethylene sheeting which is adequately sealed, curing compound or a combination of these.</t>
+  </si>
+  <si>
+    <t>• The curing of exposed concrete surfaces shall commence immediately after finishing operations are progressively completed either by water curing, wet hessian, polyethylene sheeting which is adequately sealed, curing compound or a combination of these.</t>
+  </si>
+  <si>
+    <t>• Where curing compounds are used, 2 coats of the shall be applied in accordance with the manufacturer's TDS.</t>
+  </si>
+  <si>
+    <t>• The curing membrane shall be maintained intact for not less than the specified period of curing.  Any damage to the curing membrane during the period of curing shall be repaired immediately at the original rate of application</t>
+  </si>
+  <si>
+    <t>• Curing shall continue uninterrupted for a period of not less than 7 days after placing the concrete, or 3 days for concrete edgings.</t>
+  </si>
+  <si>
+    <t>• Freshly finished exposed concrete surfaces shall be effectively protected from rain or damage from other sources, until hard set has occurred.</t>
   </si>
 </sst>
 </file>
@@ -448,7 +1105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,6 +1307,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -811,7 +1474,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -829,6 +1492,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1186,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I685"/>
+  <dimension ref="A1:I810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A616" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B639" sqref="B639"/>
+    <sheetView tabSelected="1" topLeftCell="A638" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B652" sqref="B652"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1283,7 +1949,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -1459,7 +2125,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1467,7 +2133,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1475,20 +2141,23 @@
         <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1496,33 +2165,39 @@
         <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B36" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1530,15 +2205,15 @@
         <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>44</v>
+      <c r="B40" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1546,7 +2221,7 @@
         <v>13</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -1554,7 +2229,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1562,7 +2237,7 @@
         <v>13</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1570,7 +2245,7 @@
         <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1578,23 +2253,23 @@
         <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>52</v>
+      <c r="A47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1602,46 +2277,55 @@
         <v>13</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>44</v>
+      <c r="A50" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>46</v>
+      <c r="A51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B52" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B53" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>47</v>
+      <c r="B54" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -1649,7 +2333,7 @@
         <v>13</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1657,7 +2341,7 @@
         <v>13</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1665,7 +2349,7 @@
         <v>13</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1673,7 +2357,7 @@
         <v>13</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1681,15 +2365,15 @@
         <v>13</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>50</v>
+      <c r="B60" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1697,31 +2381,31 @@
         <v>13</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>54</v>
+      <c r="A64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -1729,20 +2413,23 @@
         <v>13</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B66" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -1750,25 +2437,31 @@
         <v>13</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B69" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B70" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>47</v>
+      <c r="B71" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -1776,47 +2469,47 @@
         <v>13</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>44</v>
+      <c r="A74" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>49</v>
+      <c r="A75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>44</v>
+      <c r="B76" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>50</v>
+      <c r="B77" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -1824,7 +2517,7 @@
         <v>13</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -1832,23 +2525,23 @@
         <v>13</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>55</v>
+      <c r="A81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -1856,20 +2549,23 @@
         <v>13</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B83" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -1877,33 +2573,39 @@
         <v>13</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B86" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>47</v>
+      <c r="B88" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>44</v>
+      <c r="B89" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -1911,7 +2613,7 @@
         <v>13</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -1919,7 +2621,7 @@
         <v>13</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -1927,7 +2629,7 @@
         <v>13</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -1935,7 +2637,7 @@
         <v>13</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -1943,7 +2645,7 @@
         <v>13</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -1951,7 +2653,7 @@
         <v>13</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -1959,36 +2661,39 @@
         <v>13</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="6" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
-        <v>13</v>
+      <c r="B100" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -1996,7 +2701,7 @@
         <v>13</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -2004,25 +2709,31 @@
         <v>13</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B103" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B104" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -2030,15 +2741,15 @@
         <v>13</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>48</v>
+      <c r="B107" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -2046,7 +2757,7 @@
         <v>13</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -2054,7 +2765,7 @@
         <v>13</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -2062,7 +2773,7 @@
         <v>13</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -2070,7 +2781,7 @@
         <v>13</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -2078,7 +2789,7 @@
         <v>13</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -2086,44 +2797,47 @@
         <v>13</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="6" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
-        <v>13</v>
+      <c r="B118" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -2131,7 +2845,7 @@
         <v>13</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -2139,25 +2853,31 @@
         <v>13</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B121" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B122" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -2165,15 +2885,15 @@
         <v>13</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>48</v>
+      <c r="B125" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -2181,7 +2901,7 @@
         <v>13</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -2189,7 +2909,7 @@
         <v>13</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -2197,7 +2917,7 @@
         <v>13</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -2205,7 +2925,7 @@
         <v>13</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -2213,7 +2933,7 @@
         <v>13</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -2221,70 +2941,79 @@
         <v>13</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>58</v>
+      <c r="A133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="1" t="s">
-        <v>13</v>
+      <c r="A135" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>44</v>
+      <c r="A136" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>46</v>
+      <c r="A137" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B138" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B139" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>47</v>
+      <c r="B140" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -2292,7 +3021,7 @@
         <v>13</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -2300,7 +3029,7 @@
         <v>13</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -2308,7 +3037,7 @@
         <v>13</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -2316,15 +3045,15 @@
         <v>13</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>44</v>
+      <c r="B145" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -2332,7 +3061,7 @@
         <v>13</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -2340,7 +3069,7 @@
         <v>13</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
@@ -2348,31 +3077,31 @@
         <v>13</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>59</v>
+      <c r="A150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>60</v>
+      <c r="A151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -2380,46 +3109,55 @@
         <v>13</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B153" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>46</v>
+      <c r="A155" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="1" t="s">
-        <v>13</v>
+      <c r="A156" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B157" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B158" s="4" t="s">
-        <v>47</v>
+      <c r="B158" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -2427,7 +3165,7 @@
         <v>13</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -2435,7 +3173,7 @@
         <v>13</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -2443,15 +3181,15 @@
         <v>13</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>49</v>
+      <c r="B162" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -2459,7 +3197,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -2467,7 +3205,7 @@
         <v>13</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -2475,7 +3213,7 @@
         <v>13</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
@@ -2483,23 +3221,23 @@
         <v>13</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>61</v>
+      <c r="A168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
@@ -2507,46 +3245,55 @@
         <v>13</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B170" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>46</v>
+      <c r="A172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" s="1" t="s">
-        <v>13</v>
+      <c r="A173" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B174" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B175" s="4" t="s">
-        <v>47</v>
+      <c r="B175" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
@@ -2554,15 +3301,15 @@
         <v>13</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>48</v>
+      <c r="B177" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
@@ -2570,15 +3317,15 @@
         <v>13</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>49</v>
+      <c r="B179" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
@@ -2586,7 +3333,7 @@
         <v>13</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
@@ -2594,7 +3341,7 @@
         <v>13</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
@@ -2602,7 +3349,7 @@
         <v>13</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
@@ -2610,31 +3357,31 @@
         <v>13</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>63</v>
+      <c r="A185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>62</v>
+      <c r="A186" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
@@ -2642,20 +3389,23 @@
         <v>13</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>44</v>
+      <c r="A189" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
@@ -2663,25 +3413,31 @@
         <v>13</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B191" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B192" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B193" s="4" t="s">
-        <v>47</v>
+      <c r="B193" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
@@ -2689,15 +3445,15 @@
         <v>13</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>48</v>
+      <c r="B195" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
@@ -2705,7 +3461,7 @@
         <v>13</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
@@ -2713,7 +3469,7 @@
         <v>13</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
@@ -2721,7 +3477,7 @@
         <v>13</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
@@ -2729,7 +3485,7 @@
         <v>13</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
@@ -2737,7 +3493,7 @@
         <v>13</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
@@ -2745,70 +3501,79 @@
         <v>13</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>64</v>
+      <c r="A203" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" s="1" t="s">
-        <v>13</v>
+      <c r="A205" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>44</v>
+      <c r="A206" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>46</v>
+      <c r="B207" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B208" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B209" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B210" s="4" t="s">
-        <v>47</v>
+      <c r="B210" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
@@ -2816,7 +3581,7 @@
         <v>13</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
@@ -2824,7 +3589,7 @@
         <v>13</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
@@ -2832,15 +3597,15 @@
         <v>13</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>49</v>
+      <c r="B214" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
@@ -2848,7 +3613,7 @@
         <v>13</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
@@ -2856,7 +3621,7 @@
         <v>13</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
@@ -2864,7 +3629,7 @@
         <v>13</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
@@ -2872,23 +3637,23 @@
         <v>13</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B220" s="6" t="s">
-        <v>65</v>
+      <c r="A220" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
@@ -2896,70 +3661,79 @@
         <v>13</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B222" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A224" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>46</v>
+      <c r="A224" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B225" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B226" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>44</v>
+      <c r="B228" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B229" s="1" t="s">
-        <v>48</v>
+      <c r="B229" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B230" s="1" t="s">
-        <v>44</v>
+      <c r="B230" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
@@ -2967,7 +3741,7 @@
         <v>13</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
@@ -2975,7 +3749,7 @@
         <v>13</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
@@ -2983,7 +3757,7 @@
         <v>13</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
@@ -2991,31 +3765,31 @@
         <v>13</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B235" s="1" t="s">
-        <v>51</v>
+      <c r="B235" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A237" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>66</v>
+      <c r="A237" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
@@ -3023,20 +3797,23 @@
         <v>13</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B239" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
@@ -3044,33 +3821,39 @@
         <v>13</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B242" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B243" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A245" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>44</v>
+      <c r="A245" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
@@ -3078,7 +3861,7 @@
         <v>13</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
@@ -3086,15 +3869,15 @@
         <v>13</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B248" s="1" t="s">
-        <v>49</v>
+      <c r="B248" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
@@ -3102,7 +3885,7 @@
         <v>13</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
@@ -3110,7 +3893,7 @@
         <v>13</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
@@ -3118,7 +3901,7 @@
         <v>13</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
@@ -3126,23 +3909,23 @@
         <v>13</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A254" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B254" s="6" t="s">
-        <v>67</v>
+      <c r="A254" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
@@ -3150,20 +3933,23 @@
         <v>13</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B256" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
@@ -3171,33 +3957,39 @@
         <v>13</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B259" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B260" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B261" s="4" t="s">
-        <v>47</v>
+      <c r="B261" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B262" s="1" t="s">
-        <v>44</v>
+      <c r="B262" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
@@ -3205,7 +3997,7 @@
         <v>13</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
@@ -3213,7 +4005,7 @@
         <v>13</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
@@ -3221,7 +4013,7 @@
         <v>13</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
@@ -3229,7 +4021,7 @@
         <v>13</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
@@ -3237,7 +4029,7 @@
         <v>13</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
@@ -3245,7 +4037,7 @@
         <v>13</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
@@ -3253,44 +4045,47 @@
         <v>13</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="B271" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A271" s="6" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B271" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A272" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>43</v>
+      <c r="B272" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B273" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
@@ -3298,25 +4093,31 @@
         <v>13</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B276" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B277" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B278" s="4" t="s">
-        <v>47</v>
+      <c r="B278" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
@@ -3324,7 +4125,7 @@
         <v>13</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
@@ -3332,7 +4133,7 @@
         <v>13</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
@@ -3340,7 +4141,7 @@
         <v>13</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
@@ -3348,7 +4149,7 @@
         <v>13</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
@@ -3356,15 +4157,15 @@
         <v>13</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B284" s="1" t="s">
-        <v>50</v>
+      <c r="B284" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
@@ -3372,7 +4173,7 @@
         <v>13</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
@@ -3380,23 +4181,23 @@
         <v>13</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A288" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B288" s="6" t="s">
-        <v>69</v>
+      <c r="A288" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
@@ -3404,20 +4205,23 @@
         <v>13</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B290" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
@@ -3425,25 +4229,31 @@
         <v>13</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A294" s="1" t="s">
-        <v>13</v>
+      <c r="A294" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B295" s="4" t="s">
-        <v>47</v>
+      <c r="B295" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
@@ -3451,7 +4261,7 @@
         <v>13</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
@@ -3459,7 +4269,7 @@
         <v>13</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
@@ -3467,7 +4277,7 @@
         <v>13</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
@@ -3475,7 +4285,7 @@
         <v>13</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>49</v>
+        <v>171</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
@@ -3483,15 +4293,15 @@
         <v>13</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B301" s="1" t="s">
-        <v>50</v>
+      <c r="B301" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
@@ -3499,7 +4309,7 @@
         <v>13</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
@@ -3507,23 +4317,23 @@
         <v>13</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A305" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B305" s="6" t="s">
-        <v>70</v>
+      <c r="A305" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
@@ -3531,20 +4341,23 @@
         <v>13</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B307" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
@@ -3552,25 +4365,31 @@
         <v>13</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A311" s="1" t="s">
-        <v>13</v>
+      <c r="A311" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B311" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A312" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B312" s="4" t="s">
-        <v>47</v>
+      <c r="A312" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
@@ -3578,7 +4397,7 @@
         <v>13</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
@@ -3586,7 +4405,7 @@
         <v>13</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
@@ -3594,7 +4413,7 @@
         <v>13</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
@@ -3602,7 +4421,7 @@
         <v>13</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
@@ -3610,7 +4429,7 @@
         <v>13</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
@@ -3618,7 +4437,7 @@
         <v>13</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
@@ -3626,7 +4445,7 @@
         <v>13</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
@@ -3634,23 +4453,23 @@
         <v>13</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A322" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B322" s="6" t="s">
-        <v>71</v>
+      <c r="A322" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
@@ -3658,20 +4477,23 @@
         <v>13</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B324" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
@@ -3679,41 +4501,47 @@
         <v>13</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B327" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B328" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B329" s="4" t="s">
-        <v>47</v>
+      <c r="B329" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A331" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>48</v>
+      <c r="A331" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
@@ -3721,7 +4549,7 @@
         <v>13</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
@@ -3729,7 +4557,7 @@
         <v>13</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
@@ -3737,7 +4565,7 @@
         <v>13</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
@@ -3745,7 +4573,7 @@
         <v>13</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
@@ -3753,162 +4581,135 @@
         <v>13</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A339" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B339" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B341" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C342" s="5"/>
-      <c r="D342" s="5"/>
-      <c r="E342" s="5"/>
-      <c r="F342" s="5"/>
-      <c r="G342" s="5"/>
-      <c r="H342" s="5"/>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C343" s="5"/>
-      <c r="D343" s="5"/>
-      <c r="E343" s="5"/>
-      <c r="F343" s="5"/>
-      <c r="G343" s="5"/>
-      <c r="H343" s="5"/>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C344" s="5"/>
-      <c r="D344" s="5"/>
-      <c r="E344" s="5"/>
-      <c r="F344" s="5"/>
-      <c r="G344" s="5"/>
-      <c r="H344" s="5"/>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B344" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C345" s="5"/>
-      <c r="D345" s="5"/>
-      <c r="E345" s="5"/>
-      <c r="F345" s="5"/>
-      <c r="G345" s="5"/>
-      <c r="H345" s="5"/>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B345" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B346" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C346" s="5"/>
-      <c r="D346" s="5"/>
-      <c r="E346" s="5"/>
-      <c r="F346" s="5"/>
-      <c r="G346" s="5"/>
-      <c r="H346" s="5"/>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B346" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C347" s="5"/>
-      <c r="D347" s="5"/>
-      <c r="E347" s="5"/>
-      <c r="F347" s="5"/>
-      <c r="G347" s="5"/>
-      <c r="H347" s="5"/>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B349" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B349" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
@@ -3916,7 +4717,7 @@
         <v>13</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
@@ -3924,23 +4725,23 @@
         <v>13</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A356" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B356" s="6" t="s">
-        <v>74</v>
+      <c r="A356" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
@@ -3948,20 +4749,23 @@
         <v>13</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A359" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>44</v>
+      <c r="A359" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
@@ -3969,25 +4773,31 @@
         <v>13</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B361" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B362" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B363" s="4" t="s">
-        <v>47</v>
+      <c r="B363" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
@@ -3995,15 +4805,15 @@
         <v>13</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B365" s="1" t="s">
-        <v>48</v>
+      <c r="B365" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
@@ -4011,7 +4821,7 @@
         <v>13</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.35">
@@ -4019,7 +4829,7 @@
         <v>13</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.35">
@@ -4027,7 +4837,7 @@
         <v>13</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.35">
@@ -4035,7 +4845,7 @@
         <v>13</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>50</v>
+        <v>196</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.35">
@@ -4043,7 +4853,7 @@
         <v>13</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.35">
@@ -4051,23 +4861,23 @@
         <v>13</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A373" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B373" s="6" t="s">
-        <v>75</v>
+      <c r="A373" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.35">
@@ -4075,20 +4885,23 @@
         <v>13</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B375" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.35">
@@ -4096,41 +4909,47 @@
         <v>13</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B378" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B379" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B380" s="4" t="s">
-        <v>47</v>
+      <c r="B380" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A382" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>48</v>
+      <c r="A382" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B382" s="6" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.35">
@@ -4138,7 +4957,7 @@
         <v>13</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>44</v>
+        <v>199</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.35">
@@ -4146,7 +4965,7 @@
         <v>13</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>49</v>
+        <v>193</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.35">
@@ -4154,7 +4973,7 @@
         <v>13</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.35">
@@ -4162,7 +4981,7 @@
         <v>13</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.35">
@@ -4170,7 +4989,7 @@
         <v>13</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.35">
@@ -4178,23 +4997,23 @@
         <v>13</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A390" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B390" s="6" t="s">
-        <v>76</v>
+      <c r="A390" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.35">
@@ -4202,20 +5021,23 @@
         <v>13</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>43</v>
+        <v>201</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B392" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>44</v>
+        <v>203</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.35">
@@ -4223,25 +5045,31 @@
         <v>13</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>46</v>
+        <v>204</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B395" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B396" s="1" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B397" s="4" t="s">
-        <v>47</v>
+      <c r="B397" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.35">
@@ -4249,15 +5077,15 @@
         <v>13</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B399" s="1" t="s">
-        <v>48</v>
+      <c r="B399" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.35">
@@ -4265,245 +5093,347 @@
         <v>13</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A407" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A408" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B406" s="1" t="s">
+      <c r="B408" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A407" s="6" t="s">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A409" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B407" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A408" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A409" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B409" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B412" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B413" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B414" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B414" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="C415" s="5"/>
+      <c r="D415" s="5"/>
+      <c r="E415" s="5"/>
+      <c r="F415" s="5"/>
+      <c r="G415" s="5"/>
+      <c r="H415" s="5"/>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+      <c r="C416" s="5"/>
+      <c r="D416" s="5"/>
+      <c r="E416" s="5"/>
+      <c r="F416" s="5"/>
+      <c r="G416" s="5"/>
+      <c r="H416" s="5"/>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="C417" s="5"/>
+      <c r="D417" s="5"/>
+      <c r="E417" s="5"/>
+      <c r="F417" s="5"/>
+      <c r="G417" s="5"/>
+      <c r="H417" s="5"/>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="C418" s="5"/>
+      <c r="D418" s="5"/>
+      <c r="E418" s="5"/>
+      <c r="F418" s="5"/>
+      <c r="G418" s="5"/>
+      <c r="H418" s="5"/>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="C419" s="5"/>
+      <c r="D419" s="5"/>
+      <c r="E419" s="5"/>
+      <c r="F419" s="5"/>
+      <c r="G419" s="5"/>
+      <c r="H419" s="5"/>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="C420" s="5"/>
+      <c r="D420" s="5"/>
+      <c r="E420" s="5"/>
+      <c r="F420" s="5"/>
+      <c r="G420" s="5"/>
+      <c r="H420" s="5"/>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+      <c r="C421" s="5"/>
+      <c r="D421" s="5"/>
+      <c r="E421" s="5"/>
+      <c r="F421" s="5"/>
+      <c r="G421" s="5"/>
+      <c r="H421" s="5"/>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+      <c r="C422" s="5"/>
+      <c r="D422" s="5"/>
+      <c r="E422" s="5"/>
+      <c r="F422" s="5"/>
+      <c r="G422" s="5"/>
+      <c r="H422" s="5"/>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A424" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B424" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="C423" s="5"/>
+      <c r="D423" s="5"/>
+      <c r="E423" s="5"/>
+      <c r="F423" s="5"/>
+      <c r="G423" s="5"/>
+      <c r="H423" s="5"/>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A424" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C424" s="5"/>
+      <c r="D424" s="5"/>
+      <c r="E424" s="5"/>
+      <c r="F424" s="5"/>
+      <c r="G424" s="5"/>
+      <c r="H424" s="5"/>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+      <c r="C425" s="5"/>
+      <c r="D425" s="5"/>
+      <c r="E425" s="5"/>
+      <c r="F425" s="5"/>
+      <c r="G425" s="5"/>
+      <c r="H425" s="5"/>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B426" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C426" s="5"/>
+      <c r="D426" s="5"/>
+      <c r="E426" s="5"/>
+      <c r="F426" s="5"/>
+      <c r="G426" s="5"/>
+      <c r="H426" s="5"/>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B427" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B427" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C427" s="5"/>
+      <c r="D427" s="5"/>
+      <c r="E427" s="5"/>
+      <c r="F427" s="5"/>
+      <c r="G427" s="5"/>
+      <c r="H427" s="5"/>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="C428" s="5"/>
+      <c r="D428" s="5"/>
+      <c r="E428" s="5"/>
+      <c r="F428" s="5"/>
+      <c r="G428" s="5"/>
+      <c r="H428" s="5"/>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B429" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B430" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B431" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B431" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.35">
@@ -4511,7 +5441,7 @@
         <v>13</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.35">
@@ -4519,7 +5449,7 @@
         <v>13</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.35">
@@ -4527,23 +5457,23 @@
         <v>13</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A437" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>50</v>
+      <c r="A437" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B437" s="6" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.35">
@@ -4551,7 +5481,7 @@
         <v>13</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>44</v>
+        <v>219</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.35">
@@ -4559,23 +5489,23 @@
         <v>13</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A441" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B441" s="6" t="s">
-        <v>79</v>
+      <c r="A441" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.35">
@@ -4583,20 +5513,23 @@
         <v>13</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>43</v>
+        <v>226</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B443" s="1" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.35">
@@ -4604,25 +5537,31 @@
         <v>13</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>46</v>
+        <v>228</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B446" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B447" s="1" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B448" s="4" t="s">
-        <v>47</v>
+      <c r="B448" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.35">
@@ -4630,15 +5569,15 @@
         <v>13</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B450" s="1" t="s">
-        <v>48</v>
+      <c r="B450" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.35">
@@ -4646,7 +5585,7 @@
         <v>13</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.35">
@@ -4654,7 +5593,7 @@
         <v>13</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.35">
@@ -4662,7 +5601,7 @@
         <v>13</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.35">
@@ -4670,7 +5609,7 @@
         <v>13</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.35">
@@ -4678,7 +5617,7 @@
         <v>13</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.35">
@@ -4686,70 +5625,79 @@
         <v>13</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>51</v>
+        <v>229</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A458" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B458" s="6" t="s">
-        <v>80</v>
+      <c r="A458" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A460" s="1" t="s">
-        <v>13</v>
+      <c r="A460" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B460" s="6" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B461" s="1" t="s">
-        <v>44</v>
+      <c r="B461" s="4" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B462" s="1" t="s">
-        <v>46</v>
+      <c r="B462" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B463" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B464" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B465" s="4" t="s">
-        <v>47</v>
+      <c r="B465" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.35">
@@ -4757,7 +5705,7 @@
         <v>13</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.35">
@@ -4765,15 +5713,15 @@
         <v>13</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B468" s="1" t="s">
-        <v>44</v>
+      <c r="B468" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.35">
@@ -4781,7 +5729,7 @@
         <v>13</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.35">
@@ -4789,7 +5737,7 @@
         <v>13</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.35">
@@ -4797,7 +5745,7 @@
         <v>13</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.35">
@@ -4805,7 +5753,7 @@
         <v>13</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.35">
@@ -4813,23 +5761,23 @@
         <v>13</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A475" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B475" s="6" t="s">
-        <v>81</v>
+      <c r="A475" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.35">
@@ -4837,20 +5785,23 @@
         <v>13</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A478" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B478" s="1" t="s">
-        <v>44</v>
+      <c r="A478" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B478" s="6" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.35">
@@ -4858,25 +5809,31 @@
         <v>13</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B480" s="4" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B481" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B482" s="4" t="s">
-        <v>47</v>
+      <c r="B482" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.35">
@@ -4884,7 +5841,7 @@
         <v>13</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>44</v>
+        <v>239</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.35">
@@ -4892,7 +5849,7 @@
         <v>13</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>48</v>
+        <v>241</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.35">
@@ -4900,7 +5857,7 @@
         <v>13</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>44</v>
+        <v>242</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.35">
@@ -4908,7 +5865,7 @@
         <v>13</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.35">
@@ -4916,7 +5873,7 @@
         <v>13</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>44</v>
+        <v>244</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.35">
@@ -4924,15 +5881,15 @@
         <v>13</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B489" s="1" t="s">
-        <v>44</v>
+      <c r="B489" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.35">
@@ -4940,23 +5897,23 @@
         <v>13</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A492" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B492" s="6" t="s">
-        <v>72</v>
+      <c r="A492" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.35">
@@ -4964,20 +5921,23 @@
         <v>13</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B494" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.35">
@@ -4985,25 +5945,31 @@
         <v>13</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B497" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A499" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B499" s="4" t="s">
-        <v>47</v>
+      <c r="A499" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B499" s="6" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.35">
@@ -5011,7 +5977,7 @@
         <v>13</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>44</v>
+        <v>246</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.35">
@@ -5019,7 +5985,7 @@
         <v>13</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>48</v>
+        <v>247</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.35">
@@ -5027,7 +5993,7 @@
         <v>13</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.35">
@@ -5035,7 +6001,7 @@
         <v>13</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>49</v>
+        <v>248</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.35">
@@ -5043,7 +6009,7 @@
         <v>13</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>44</v>
+        <v>249</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.35">
@@ -5051,7 +6017,7 @@
         <v>13</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.35">
@@ -5059,31 +6025,31 @@
         <v>13</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A507" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B507" s="1" t="s">
-        <v>51</v>
+      <c r="B507" s="4" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A508" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A509" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B509" s="6" t="s">
-        <v>82</v>
+      <c r="A509" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.35">
@@ -5091,20 +6057,23 @@
         <v>13</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A511" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B511" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A512" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.35">
@@ -5112,33 +6081,39 @@
         <v>13</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>46</v>
+        <v>251</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A514" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B514" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A515" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B515" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A516" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B516" s="4" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A517" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B517" s="1" t="s">
-        <v>44</v>
+      <c r="A517" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B517" s="6" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.35">
@@ -5146,7 +6121,7 @@
         <v>13</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>48</v>
+        <v>246</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.35">
@@ -5154,7 +6129,7 @@
         <v>13</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>44</v>
+        <v>253</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.35">
@@ -5162,7 +6137,7 @@
         <v>13</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.35">
@@ -5170,7 +6145,7 @@
         <v>13</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>44</v>
+        <v>254</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.35">
@@ -5178,7 +6153,7 @@
         <v>13</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>50</v>
+        <v>255</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.35">
@@ -5186,7 +6161,7 @@
         <v>13</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>44</v>
+        <v>257</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.35">
@@ -5194,31 +6169,31 @@
         <v>13</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>51</v>
+        <v>258</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A525" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A526" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B526" s="3" t="s">
-        <v>83</v>
+      <c r="A526" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A527" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B527" s="6">
-        <v>6.1</v>
+      <c r="A527" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.35">
@@ -5226,20 +6201,23 @@
         <v>13</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>43</v>
+        <v>262</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A529" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B529" s="1" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A530" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>44</v>
+        <v>256</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.35">
@@ -5247,25 +6225,31 @@
         <v>13</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>46</v>
+        <v>264</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A532" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B532" s="1" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A533" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B533" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A534" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>47</v>
+        <v>249</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.35">
@@ -5273,7 +6257,7 @@
         <v>13</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.35">
@@ -5281,15 +6265,15 @@
         <v>13</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A537" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B537" s="1" t="s">
-        <v>44</v>
+      <c r="B537" s="4" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.35">
@@ -5297,7 +6281,7 @@
         <v>13</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.35">
@@ -5305,7 +6289,7 @@
         <v>13</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.35">
@@ -5313,7 +6297,7 @@
         <v>13</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.35">
@@ -5321,7 +6305,7 @@
         <v>13</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.35">
@@ -5329,23 +6313,23 @@
         <v>13</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A543" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>15</v>
+        <v>251</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A544" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B544" s="6">
-        <v>6.2</v>
+      <c r="A544" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.35">
@@ -5353,20 +6337,23 @@
         <v>13</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A546" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A547" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B547" s="1" t="s">
-        <v>44</v>
+      <c r="A547" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B547" s="6" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.35">
@@ -5374,25 +6361,31 @@
         <v>13</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>46</v>
+        <v>246</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A549" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B549" s="1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A550" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B550" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A551" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B551" s="4" t="s">
-        <v>47</v>
+      <c r="B551" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.35">
@@ -5400,7 +6393,7 @@
         <v>13</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>44</v>
+        <v>270</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.35">
@@ -5408,7 +6401,7 @@
         <v>13</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>48</v>
+        <v>271</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.35">
@@ -5416,7 +6409,7 @@
         <v>13</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>44</v>
+        <v>272</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.35">
@@ -5424,7 +6417,7 @@
         <v>13</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>49</v>
+        <v>273</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.35">
@@ -5432,7 +6425,7 @@
         <v>13</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>44</v>
+        <v>274</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.35">
@@ -5440,7 +6433,7 @@
         <v>13</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>50</v>
+        <v>240</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.35">
@@ -5448,31 +6441,31 @@
         <v>13</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A559" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B559" s="1" t="s">
-        <v>51</v>
+      <c r="B559" s="4" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A560" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A561" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B561" s="6">
-        <v>6.3</v>
+      <c r="A561" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.35">
@@ -5480,20 +6473,23 @@
         <v>13</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A563" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B563" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A564" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.35">
@@ -5501,33 +6497,39 @@
         <v>13</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>46</v>
+        <v>276</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A566" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B566" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A567" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B567" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A568" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B568" s="4" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A569" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B569" s="1" t="s">
-        <v>44</v>
+      <c r="A569" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B569" s="6" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.35">
@@ -5535,7 +6537,7 @@
         <v>13</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>48</v>
+        <v>278</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.35">
@@ -5543,7 +6545,7 @@
         <v>13</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.35">
@@ -5551,7 +6553,7 @@
         <v>13</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.35">
@@ -5559,7 +6561,7 @@
         <v>13</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.35">
@@ -5567,7 +6569,7 @@
         <v>13</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>50</v>
+        <v>282</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.35">
@@ -5575,7 +6577,7 @@
         <v>13</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>44</v>
+        <v>283</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.35">
@@ -5583,23 +6585,23 @@
         <v>13</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>51</v>
+        <v>284</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A577" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>15</v>
+        <v>285</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A578" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B578" s="6">
-        <v>6.4</v>
+      <c r="A578" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.35">
@@ -5607,20 +6609,23 @@
         <v>13</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>43</v>
+        <v>286</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A580" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B580" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A581" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>44</v>
+        <v>279</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.35">
@@ -5628,25 +6633,31 @@
         <v>13</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>46</v>
+        <v>280</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A583" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B583" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A584" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B584" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A585" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B585" s="4" t="s">
-        <v>47</v>
+      <c r="B585" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.35">
@@ -5654,7 +6665,7 @@
         <v>13</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>44</v>
+        <v>288</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.35">
@@ -5662,7 +6673,7 @@
         <v>13</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.35">
@@ -5670,7 +6681,7 @@
         <v>13</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>44</v>
+        <v>289</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.35">
@@ -5678,7 +6689,7 @@
         <v>13</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.35">
@@ -5686,7 +6697,7 @@
         <v>13</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.35">
@@ -5694,39 +6705,39 @@
         <v>13</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A592" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A593" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B593" s="1" t="s">
-        <v>51</v>
+      <c r="A593" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B593" s="6" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A594" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A595" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B595" s="6">
-        <v>6.5</v>
+      <c r="A595" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.35">
@@ -5734,20 +6745,23 @@
         <v>13</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>43</v>
+        <v>292</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A597" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B597" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A598" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>44</v>
+        <v>293</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.35">
@@ -5755,25 +6769,31 @@
         <v>13</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>46</v>
+        <v>294</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A600" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B600" s="1" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A601" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B601" s="1" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A602" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B602" s="4" t="s">
-        <v>47</v>
+      <c r="B602" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.35">
@@ -5781,15 +6801,15 @@
         <v>13</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A604" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B604" s="1" t="s">
-        <v>48</v>
+      <c r="B604" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.35">
@@ -5797,7 +6817,7 @@
         <v>13</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.35">
@@ -5805,7 +6825,7 @@
         <v>13</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.35">
@@ -5813,7 +6833,7 @@
         <v>13</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.35">
@@ -5821,7 +6841,7 @@
         <v>13</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.35">
@@ -5829,7 +6849,7 @@
         <v>13</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.35">
@@ -5837,36 +6857,39 @@
         <v>13</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A611" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A612" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B612" s="6">
-        <v>6.6</v>
+      <c r="A612" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A613" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A614" s="1" t="s">
-        <v>13</v>
+      <c r="A614" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B614" s="6" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.35">
@@ -5874,7 +6897,7 @@
         <v>13</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.35">
@@ -5882,25 +6905,31 @@
         <v>13</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>46</v>
+        <v>291</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A617" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B617" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A618" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B618" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A619" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B619" s="4" t="s">
-        <v>47</v>
+      <c r="B619" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.35">
@@ -5908,15 +6937,15 @@
         <v>13</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A621" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B621" s="1" t="s">
-        <v>48</v>
+      <c r="B621" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.35">
@@ -5924,7 +6953,7 @@
         <v>13</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.35">
@@ -5932,7 +6961,7 @@
         <v>13</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.35">
@@ -5940,7 +6969,7 @@
         <v>13</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.35">
@@ -5948,7 +6977,7 @@
         <v>13</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.35">
@@ -5956,7 +6985,7 @@
         <v>13</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.35">
@@ -5964,36 +6993,39 @@
         <v>13</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A628" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A629" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B629" s="6">
-        <v>6.7</v>
+      <c r="A629" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A630" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A631" s="1" t="s">
-        <v>13</v>
+      <c r="A631" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B631" s="6" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.35">
@@ -6001,7 +7033,7 @@
         <v>13</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>44</v>
+        <v>302</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.35">
@@ -6009,25 +7041,31 @@
         <v>13</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A634" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B634" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A635" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B635" s="1" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A636" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B636" s="4" t="s">
-        <v>47</v>
+      <c r="B636" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.35">
@@ -6035,7 +7073,7 @@
         <v>13</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>44</v>
+        <v>306</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.35">
@@ -6043,7 +7081,7 @@
         <v>13</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>48</v>
+        <v>307</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.35">
@@ -6051,7 +7089,7 @@
         <v>13</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>44</v>
+        <v>308</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.35">
@@ -6059,15 +7097,15 @@
         <v>13</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A641" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B641" s="1" t="s">
-        <v>44</v>
+      <c r="B641" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.35">
@@ -6075,7 +7113,7 @@
         <v>13</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.35">
@@ -6083,7 +7121,7 @@
         <v>13</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.35">
@@ -6091,23 +7129,23 @@
         <v>13</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A645" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A646" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B646" s="6">
-        <v>6.8</v>
+      <c r="A646" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.35">
@@ -6115,62 +7153,68 @@
         <v>13</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>43</v>
+        <v>207</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A648" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B648" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A649" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A650" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A651" s="1" t="s">
-        <v>13</v>
+      <c r="A651" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A652" s="1" t="s">
-        <v>13</v>
+      <c r="A652" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B652" s="6">
+        <v>6.1</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A653" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B653" s="4" t="s">
-        <v>47</v>
+      <c r="B653" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A654" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B654" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A655" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.35">
@@ -6185,24 +7229,18 @@
       <c r="A657" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B657" s="1" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A658" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B658" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A659" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B659" s="1" t="s">
-        <v>50</v>
+      <c r="B659" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.35">
@@ -6210,7 +7248,7 @@
         <v>13</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.35">
@@ -6218,23 +7256,23 @@
         <v>13</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A662" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A663" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B663" s="6">
-        <v>6.9</v>
+      <c r="A663" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.35">
@@ -6242,20 +7280,23 @@
         <v>13</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A665" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B665" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A666" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.35">
@@ -6263,41 +7304,44 @@
         <v>13</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A668" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A669" s="1" t="s">
-        <v>13</v>
+      <c r="A669" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B669" s="6">
+        <v>6.2</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A670" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B670" s="4" t="s">
-        <v>47</v>
+      <c r="B670" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A671" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B671" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A672" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.35">
@@ -6312,24 +7356,18 @@
       <c r="A674" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B674" s="1" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A675" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B675" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A676" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B676" s="1" t="s">
-        <v>50</v>
+      <c r="B676" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.35">
@@ -6337,7 +7375,7 @@
         <v>13</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.35">
@@ -6345,67 +7383,1004 @@
         <v>13</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A679" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A680" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A681" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A682" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A683" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A684" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A685" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B679" s="1" t="s">
+      <c r="B685" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A680" s="5" t="s">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A686" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B680" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A681" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B681" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A682" s="5" t="s">
+      <c r="B686" s="6">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A687" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A688" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A689" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A690" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A691" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A692" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A693" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B693" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A694" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A695" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A696" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A697" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A698" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A699" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A700" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A701" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A702" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B682" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A683" s="5" t="s">
+      <c r="B702" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A703" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B703" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A704" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A705" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A706" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A707" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A708" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A709" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A710" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B710" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A711" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A712" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A713" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A714" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A715" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A716" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A717" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A718" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A719" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B683" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A684" s="5" t="s">
+      <c r="B719" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A720" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B720" s="6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A721" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A722" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A723" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A724" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A725" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A726" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A727" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B727" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A728" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A729" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A730" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A731" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A732" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A733" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A734" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A735" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A736" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B684" s="5" t="s">
+      <c r="B736" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A685" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B685" s="5" t="s">
-        <v>87</v>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A737" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B737" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A738" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A739" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A740" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A741" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A742" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A743" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A744" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B744" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A745" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A746" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A747" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A748" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A749" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A750" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A751" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A752" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A753" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A754" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B754" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A755" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A756" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A757" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A758" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A759" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A760" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A761" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B761" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A762" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A763" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A764" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A765" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A766" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A767" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A768" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A769" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A770" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A771" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B771" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A772" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A773" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A774" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A775" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A776" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A777" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A778" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B778" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A779" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A780" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A781" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A782" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A783" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A784" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A785" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A786" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A787" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A788" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B788" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A789" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A790" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A791" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A792" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A793" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A794" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A795" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B795" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A796" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A797" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A798" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B798" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A799" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A800" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A801" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A802" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A803" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A804" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A805" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B805" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A806" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B806" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A807" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B807" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A808" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B808" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A809" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B809" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A810" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B810" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I685" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I810" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Metropolitan Roads/18548/res_ITP-014-CIV-CAMMS-Footpaths & Shared User Paths Rev 0.xlsx
+++ b/Metropolitan Roads/18548/res_ITP-014-CIV-CAMMS-Footpaths & Shared User Paths Rev 0.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Metropolitan Roads\18548\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69621918-F88D-4124-8CE9-874BC3DB9AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386F49B7-C0EA-40EA-BD7F-3D5F782B4CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="18640" windowHeight="13460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-170" yWindow="360" windowWidth="18640" windowHeight="13460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$810</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$827</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="350">
   <si>
     <t>type</t>
   </si>
@@ -161,9 +161,6 @@
     <t xml:space="preserve">Revision Date: </t>
   </si>
   <si>
-    <t xml:space="preserve">REFERENCE: </t>
-  </si>
-  <si>
     <t>– – – – – – – – – – – – – – – – –</t>
   </si>
   <si>
@@ -173,21 +170,6 @@
     <t xml:space="preserve">ACCEPTANCE CRITERIA: </t>
   </si>
   <si>
-    <t xml:space="preserve">METHOD: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREQUENCY: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATEGORY: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESPONSIBILITY: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERIFYING DOCUMENTS: </t>
-  </si>
-  <si>
     <t>Preliminaries - Documents</t>
   </si>
   <si>
@@ -362,9 +344,6 @@
     <t>• The Nominated Authority will review and confirm the set out.</t>
   </si>
   <si>
-    <t>• Attach: Survey Report</t>
-  </si>
-  <si>
     <t>METHOD: Document Review, Measure, Visual</t>
   </si>
   <si>
@@ -380,9 +359,6 @@
     <t>ACCEPTANCE CRITERIA: Attach Marked drawing indicating the location of this Lot</t>
   </si>
   <si>
-    <t>• Attach: Lot Map</t>
-  </si>
-  <si>
     <t>METHOD: Document</t>
   </si>
   <si>
@@ -506,9 +482,6 @@
     <t>• All soft wet or unstable material shall be removed to a depth of not less than 100 mm below the design level of the underside of bedding and filled with bedding material moistened and compacted to form a stable foundation.</t>
   </si>
   <si>
-    <t>• Attach: Bedding Material Delivery Dockets</t>
-  </si>
-  <si>
     <t>5.4 Shared User Path - Compaction Testing</t>
   </si>
   <si>
@@ -533,12 +506,6 @@
     <t>• Mean Value of Density Ratio % (3 tests) not less than 100%</t>
   </si>
   <si>
-    <t>• Attach: Moisture Content Test Results</t>
-  </si>
-  <si>
-    <t>• Attach: Mean Value of Density Ratio</t>
-  </si>
-  <si>
     <t>METHOD: Document Review, Visual</t>
   </si>
   <si>
@@ -963,6 +930,162 @@
   </si>
   <si>
     <t>• Freshly finished exposed concrete surfaces shall be effectively protected from rain or damage from other sources, until hard set has occurred.</t>
+  </si>
+  <si>
+    <t>6.1 Shared User Paths - Crack-control Joints / Weaken Plane Joints</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Crack-control joints shall be saw cut full-width of the pavement to the required depth and locations and/or longitudinal spacings as shown on the drawings within the following time-frames and air temperatures:</t>
+  </si>
+  <si>
+    <t>&lt;20°C = within 24 hours of finishing operations</t>
+  </si>
+  <si>
+    <t>≥20°C - 35°C = within 4 hours of finishing operations</t>
+  </si>
+  <si>
+    <t>6.2 Protection of Newly Poured Concrete</t>
+  </si>
+  <si>
+    <t>REFERENCE: 703.27</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All concrete shall be protected from damage from early loading by pedestrians, animals, vehicles and from rain or any other cause.</t>
+  </si>
+  <si>
+    <t>• Suitable flagging, signage or bunding shall be erected to prevent vehicles from crossing over residential and/or commercial vehicle crossings a minimum of four days after completion of casting of the concrete.  Vehicles greater than 1.5 tonnes may be permitted to cross after 7 days.</t>
+  </si>
+  <si>
+    <t>6.3 Stripping Formwork</t>
+  </si>
+  <si>
+    <t>REFERENCE: 703.12 AS3610 Table C2</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Formwork shall not be stripped until the minimum times have elapsed from the time of completion of the placing of concrete:</t>
+  </si>
+  <si>
+    <t>i. 2 days for vertical formwork on external surfaces; and</t>
+  </si>
+  <si>
+    <t>ii. 1 day for vertical forms on permanently hidden surfaces</t>
+  </si>
+  <si>
+    <t>6.4 Backfilling &amp; Pavement Restoration</t>
+  </si>
+  <si>
+    <t>REFERENCE: 703.29</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: At no earlier than 3 days after concrete placement, topsoil material shall be placed and firmly compacted in layers not exceeding 150 mm in thickness and to a width not less than 300 mm behind the edging to the top of the edging.</t>
+  </si>
+  <si>
+    <t>6.5 Surface Inspection - Cracks</t>
+  </si>
+  <si>
+    <t>REFERENCE: 703.3</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: No cracks greater than 0.2mm.</t>
+  </si>
+  <si>
+    <t>• If cracking greater than this is observed follow Structural Concrete Crack Repair ITP for investigation and repair.</t>
+  </si>
+  <si>
+    <t>6.6 Surface Inspection - Surface Finish</t>
+  </si>
+  <si>
+    <t>703.10 (a)</t>
+  </si>
+  <si>
+    <t>AS3610 Clause 3.2</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: After finishing, all work shall present a consistently neat appearance of uniform colour.</t>
+  </si>
+  <si>
+    <t>Class of finish:</t>
+  </si>
+  <si>
+    <t>• All edges shall be sharp and clean and bullnoses shall be regular and of uniform radius.</t>
+  </si>
+  <si>
+    <t>• Permanently hidden surfaces = Class 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• All other surfaces = Class 3 </t>
+  </si>
+  <si>
+    <t>• At the end of the curing period, concrete paving and shared user paths shall provide a dense, hard wearing surface</t>
+  </si>
+  <si>
+    <t>• Where surface finishes are non-conforming follow Structural Concrete Patch Repair ITP for investigation and repair.</t>
+  </si>
+  <si>
+    <t>6.7 Compressive Strength Test Results</t>
+  </si>
+  <si>
+    <t>703.11</t>
+  </si>
+  <si>
+    <t>Table 703.111</t>
+  </si>
+  <si>
+    <t>Table 610.05.051</t>
+  </si>
+  <si>
+    <t>610.16 (g)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: 7 day compressive strength to comply with table 610.051 for early indication that the strength is tracking correctly.</t>
+  </si>
+  <si>
+    <t>Attach: Compressive Strength Test Results</t>
+  </si>
+  <si>
+    <t>• 28 day compressive strength (average of the 2 no. cylinders) per sample comply with the design strength.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Note: 1 of the 2 no. 28 day cylinders per sample may be as low as 90% of the required strength, so long as the average meets the required strength. </t>
+  </si>
+  <si>
+    <t>Attach: Survey Report</t>
+  </si>
+  <si>
+    <t>Attach: Lot Map</t>
+  </si>
+  <si>
+    <t>Attach: Bedding Material Delivery Dockets</t>
+  </si>
+  <si>
+    <t>Attach: Moisture Content Test Results</t>
+  </si>
+  <si>
+    <t>Attach: Mean Value of Density Ratio</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each cylinder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8 As-built Survey </t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Provide record of dimensional measurements to demonstrate that all Works meet level and location requirements within the tolerances below:</t>
+  </si>
+  <si>
+    <t>Attach: Survey As-builts / Survey Report</t>
+  </si>
+  <si>
+    <t>• Where median surfacings are to be constructed between edge sections of the same level, paving shall be crowned to produce a cross fall between 1% and 3% towards the edges.</t>
+  </si>
+  <si>
+    <t>6.9 Non-conformance Report (NCR) Closure</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Ensure that any NCRs pertaining to the lot / element / Work area that this ITP covers, have been closed in CAMs.</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Once, prior to closure of this lot / element / Work area</t>
   </si>
 </sst>
 </file>
@@ -1852,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I810"/>
+  <dimension ref="A1:I827"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A638" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B652" sqref="B652"/>
+    <sheetView tabSelected="1" topLeftCell="A813" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B825" sqref="B825"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1949,7 +2072,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -2125,7 +2248,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -2133,7 +2256,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -2141,7 +2264,7 @@
         <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -2149,7 +2272,7 @@
         <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -2157,7 +2280,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -2165,7 +2288,7 @@
         <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -2173,7 +2296,7 @@
         <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -2181,7 +2304,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -2189,7 +2312,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -2197,7 +2320,7 @@
         <v>14</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -2205,7 +2328,7 @@
         <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -2213,7 +2336,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -2221,7 +2344,7 @@
         <v>13</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -2229,7 +2352,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -2237,7 +2360,7 @@
         <v>13</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -2245,7 +2368,7 @@
         <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -2253,7 +2376,7 @@
         <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -2261,7 +2384,7 @@
         <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -2269,7 +2392,7 @@
         <v>13</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -2277,7 +2400,7 @@
         <v>13</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -2290,10 +2413,10 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -2301,7 +2424,7 @@
         <v>12</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -2309,7 +2432,7 @@
         <v>13</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -2317,7 +2440,7 @@
         <v>13</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -2325,7 +2448,7 @@
         <v>13</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -2333,7 +2456,7 @@
         <v>13</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -2341,7 +2464,7 @@
         <v>13</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -2349,7 +2472,7 @@
         <v>13</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -2357,7 +2480,7 @@
         <v>13</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -2365,7 +2488,7 @@
         <v>13</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -2373,7 +2496,7 @@
         <v>13</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -2381,7 +2504,7 @@
         <v>13</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -2389,7 +2512,7 @@
         <v>14</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -2397,7 +2520,7 @@
         <v>13</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -2405,7 +2528,7 @@
         <v>13</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -2413,7 +2536,7 @@
         <v>13</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -2421,7 +2544,7 @@
         <v>13</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -2429,7 +2552,7 @@
         <v>13</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -2437,7 +2560,7 @@
         <v>13</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -2445,7 +2568,7 @@
         <v>13</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -2453,7 +2576,7 @@
         <v>13</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -2461,7 +2584,7 @@
         <v>13</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -2469,7 +2592,7 @@
         <v>13</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -2482,10 +2605,10 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -2493,7 +2616,7 @@
         <v>12</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -2501,7 +2624,7 @@
         <v>13</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -2509,7 +2632,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -2517,7 +2640,7 @@
         <v>13</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -2525,7 +2648,7 @@
         <v>13</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -2533,7 +2656,7 @@
         <v>13</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -2541,7 +2664,7 @@
         <v>13</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -2549,7 +2672,7 @@
         <v>13</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -2557,7 +2680,7 @@
         <v>13</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -2565,7 +2688,7 @@
         <v>13</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -2573,7 +2696,7 @@
         <v>13</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -2581,7 +2704,7 @@
         <v>13</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -2589,7 +2712,7 @@
         <v>14</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -2597,7 +2720,7 @@
         <v>13</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -2605,7 +2728,7 @@
         <v>13</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -2613,7 +2736,7 @@
         <v>13</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -2621,7 +2744,7 @@
         <v>13</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -2629,7 +2752,7 @@
         <v>13</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -2637,7 +2760,7 @@
         <v>13</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -2645,7 +2768,7 @@
         <v>13</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -2653,7 +2776,7 @@
         <v>13</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -2661,7 +2784,7 @@
         <v>13</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -2669,7 +2792,7 @@
         <v>13</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -2682,10 +2805,10 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -2693,7 +2816,7 @@
         <v>12</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -2701,7 +2824,7 @@
         <v>13</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -2709,7 +2832,7 @@
         <v>13</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -2717,7 +2840,7 @@
         <v>13</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -2725,7 +2848,7 @@
         <v>13</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -2733,7 +2856,7 @@
         <v>14</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -2741,7 +2864,7 @@
         <v>13</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -2749,7 +2872,7 @@
         <v>13</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -2757,7 +2880,7 @@
         <v>13</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -2765,7 +2888,7 @@
         <v>13</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -2773,7 +2896,7 @@
         <v>13</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -2781,7 +2904,7 @@
         <v>13</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -2789,7 +2912,7 @@
         <v>13</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -2797,7 +2920,7 @@
         <v>13</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -2805,7 +2928,7 @@
         <v>13</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -2813,7 +2936,7 @@
         <v>13</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -2826,10 +2949,10 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -2837,7 +2960,7 @@
         <v>12</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -2845,7 +2968,7 @@
         <v>13</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -2853,7 +2976,7 @@
         <v>13</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -2861,7 +2984,7 @@
         <v>13</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -2869,7 +2992,7 @@
         <v>13</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -2877,7 +3000,7 @@
         <v>13</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -2885,7 +3008,7 @@
         <v>13</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -2893,7 +3016,7 @@
         <v>13</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -2901,7 +3024,7 @@
         <v>13</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -2909,7 +3032,7 @@
         <v>13</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -2917,7 +3040,7 @@
         <v>13</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -2925,7 +3048,7 @@
         <v>13</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -2933,7 +3056,7 @@
         <v>13</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -2941,7 +3064,7 @@
         <v>13</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -2949,7 +3072,7 @@
         <v>13</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -2957,7 +3080,7 @@
         <v>13</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -2970,10 +3093,10 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -2981,7 +3104,7 @@
         <v>10</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
@@ -2989,7 +3112,7 @@
         <v>12</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -2997,7 +3120,7 @@
         <v>13</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
@@ -3005,7 +3128,7 @@
         <v>13</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -3013,7 +3136,7 @@
         <v>13</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -3021,7 +3144,7 @@
         <v>13</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -3029,7 +3152,7 @@
         <v>13</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -3037,7 +3160,7 @@
         <v>13</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>108</v>
+        <v>337</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -3045,7 +3168,7 @@
         <v>13</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -3053,7 +3176,7 @@
         <v>13</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -3061,7 +3184,7 @@
         <v>13</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -3069,7 +3192,7 @@
         <v>13</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
@@ -3077,7 +3200,7 @@
         <v>13</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -3085,7 +3208,7 @@
         <v>13</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -3093,7 +3216,7 @@
         <v>13</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -3101,7 +3224,7 @@
         <v>13</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -3109,7 +3232,7 @@
         <v>13</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -3117,7 +3240,7 @@
         <v>13</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
@@ -3130,10 +3253,10 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
@@ -3141,7 +3264,7 @@
         <v>12</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
@@ -3149,7 +3272,7 @@
         <v>13</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
@@ -3157,7 +3280,7 @@
         <v>13</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -3165,7 +3288,7 @@
         <v>13</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -3173,7 +3296,7 @@
         <v>13</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>114</v>
+        <v>338</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -3181,7 +3304,7 @@
         <v>13</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -3189,7 +3312,7 @@
         <v>13</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -3197,7 +3320,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -3205,7 +3328,7 @@
         <v>13</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -3213,7 +3336,7 @@
         <v>13</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
@@ -3221,7 +3344,7 @@
         <v>13</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -3229,7 +3352,7 @@
         <v>13</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
@@ -3237,7 +3360,7 @@
         <v>13</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
@@ -3245,7 +3368,7 @@
         <v>13</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
@@ -3253,7 +3376,7 @@
         <v>13</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -3269,7 +3392,7 @@
         <v>10</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
@@ -3277,7 +3400,7 @@
         <v>12</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
@@ -3285,7 +3408,7 @@
         <v>13</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
@@ -3293,7 +3416,7 @@
         <v>13</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
@@ -3301,7 +3424,7 @@
         <v>13</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
@@ -3309,7 +3432,7 @@
         <v>13</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
@@ -3317,7 +3440,7 @@
         <v>13</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
@@ -3325,7 +3448,7 @@
         <v>13</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
@@ -3333,7 +3456,7 @@
         <v>13</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
@@ -3341,7 +3464,7 @@
         <v>13</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
@@ -3349,7 +3472,7 @@
         <v>13</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
@@ -3357,7 +3480,7 @@
         <v>13</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
@@ -3365,7 +3488,7 @@
         <v>13</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
@@ -3373,7 +3496,7 @@
         <v>13</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
@@ -3381,7 +3504,7 @@
         <v>13</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
@@ -3389,7 +3512,7 @@
         <v>13</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
@@ -3405,7 +3528,7 @@
         <v>12</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
@@ -3413,7 +3536,7 @@
         <v>13</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
@@ -3421,7 +3544,7 @@
         <v>13</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
@@ -3429,7 +3552,7 @@
         <v>13</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
@@ -3437,7 +3560,7 @@
         <v>13</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
@@ -3445,7 +3568,7 @@
         <v>13</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
@@ -3453,7 +3576,7 @@
         <v>13</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
@@ -3461,7 +3584,7 @@
         <v>13</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
@@ -3469,7 +3592,7 @@
         <v>13</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
@@ -3477,7 +3600,7 @@
         <v>13</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
@@ -3485,7 +3608,7 @@
         <v>13</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
@@ -3493,7 +3616,7 @@
         <v>13</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
@@ -3501,7 +3624,7 @@
         <v>13</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
@@ -3509,7 +3632,7 @@
         <v>13</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
@@ -3517,7 +3640,7 @@
         <v>13</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
@@ -3533,7 +3656,7 @@
         <v>10</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
@@ -3541,7 +3664,7 @@
         <v>12</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
@@ -3549,7 +3672,7 @@
         <v>13</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
@@ -3557,7 +3680,7 @@
         <v>13</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
@@ -3565,7 +3688,7 @@
         <v>13</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
@@ -3573,7 +3696,7 @@
         <v>13</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
@@ -3581,7 +3704,7 @@
         <v>13</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
@@ -3589,7 +3712,7 @@
         <v>13</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
@@ -3597,7 +3720,7 @@
         <v>13</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
@@ -3605,7 +3728,7 @@
         <v>13</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
@@ -3613,7 +3736,7 @@
         <v>13</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
@@ -3621,7 +3744,7 @@
         <v>13</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
@@ -3629,7 +3752,7 @@
         <v>13</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
@@ -3637,7 +3760,7 @@
         <v>13</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
@@ -3645,7 +3768,7 @@
         <v>13</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
@@ -3653,7 +3776,7 @@
         <v>13</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
@@ -3661,7 +3784,7 @@
         <v>13</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
@@ -3669,7 +3792,7 @@
         <v>13</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
@@ -3685,7 +3808,7 @@
         <v>12</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
@@ -3693,7 +3816,7 @@
         <v>13</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
@@ -3701,7 +3824,7 @@
         <v>13</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
@@ -3709,7 +3832,7 @@
         <v>13</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
@@ -3717,7 +3840,7 @@
         <v>13</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
@@ -3725,7 +3848,7 @@
         <v>13</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
@@ -3733,7 +3856,7 @@
         <v>13</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
@@ -3741,7 +3864,7 @@
         <v>13</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
@@ -3749,7 +3872,7 @@
         <v>13</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
@@ -3757,7 +3880,7 @@
         <v>13</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
@@ -3765,7 +3888,7 @@
         <v>13</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
@@ -3773,7 +3896,7 @@
         <v>13</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
@@ -3781,7 +3904,7 @@
         <v>13</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
@@ -3789,7 +3912,7 @@
         <v>13</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
@@ -3797,7 +3920,7 @@
         <v>13</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
@@ -3805,7 +3928,7 @@
         <v>13</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
@@ -3813,7 +3936,7 @@
         <v>13</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
@@ -3821,7 +3944,7 @@
         <v>13</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
@@ -3829,7 +3952,7 @@
         <v>13</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
@@ -3837,7 +3960,7 @@
         <v>13</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
@@ -3853,7 +3976,7 @@
         <v>12</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
@@ -3861,7 +3984,7 @@
         <v>13</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
@@ -3869,7 +3992,7 @@
         <v>13</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
@@ -3877,7 +4000,7 @@
         <v>13</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
@@ -3885,7 +4008,7 @@
         <v>13</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
@@ -3893,7 +4016,7 @@
         <v>13</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
@@ -3901,7 +4024,7 @@
         <v>13</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
@@ -3909,7 +4032,7 @@
         <v>13</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
@@ -3917,7 +4040,7 @@
         <v>13</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
@@ -3925,7 +4048,7 @@
         <v>13</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
@@ -3933,7 +4056,7 @@
         <v>13</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
@@ -3941,7 +4064,7 @@
         <v>13</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
@@ -3949,7 +4072,7 @@
         <v>13</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
@@ -3957,7 +4080,7 @@
         <v>13</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
@@ -3965,7 +4088,7 @@
         <v>13</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
@@ -3973,7 +4096,7 @@
         <v>13</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>156</v>
+        <v>339</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
@@ -3981,7 +4104,7 @@
         <v>13</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
@@ -3989,7 +4112,7 @@
         <v>13</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
@@ -3997,7 +4120,7 @@
         <v>13</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
@@ -4005,7 +4128,7 @@
         <v>13</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
@@ -4013,7 +4136,7 @@
         <v>13</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
@@ -4021,7 +4144,7 @@
         <v>13</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
@@ -4029,7 +4152,7 @@
         <v>13</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
@@ -4037,7 +4160,7 @@
         <v>13</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
@@ -4045,7 +4168,7 @@
         <v>13</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
@@ -4053,7 +4176,7 @@
         <v>13</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
@@ -4069,7 +4192,7 @@
         <v>12</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
@@ -4077,7 +4200,7 @@
         <v>13</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
@@ -4085,7 +4208,7 @@
         <v>13</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
@@ -4093,7 +4216,7 @@
         <v>13</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
@@ -4101,7 +4224,7 @@
         <v>13</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
@@ -4109,7 +4232,7 @@
         <v>13</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
@@ -4117,7 +4240,7 @@
         <v>13</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
@@ -4125,7 +4248,7 @@
         <v>13</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
@@ -4133,7 +4256,7 @@
         <v>13</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
@@ -4141,7 +4264,7 @@
         <v>13</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>165</v>
+        <v>340</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
@@ -4149,7 +4272,7 @@
         <v>13</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>166</v>
+        <v>341</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
@@ -4157,7 +4280,7 @@
         <v>13</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
@@ -4165,7 +4288,7 @@
         <v>13</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
@@ -4173,7 +4296,7 @@
         <v>13</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
@@ -4181,7 +4304,7 @@
         <v>13</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
@@ -4189,7 +4312,7 @@
         <v>13</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
@@ -4197,7 +4320,7 @@
         <v>13</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
@@ -4205,7 +4328,7 @@
         <v>13</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
@@ -4213,7 +4336,7 @@
         <v>13</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
@@ -4221,7 +4344,7 @@
         <v>13</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
@@ -4229,7 +4352,7 @@
         <v>13</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
@@ -4245,7 +4368,7 @@
         <v>12</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
@@ -4253,7 +4376,7 @@
         <v>13</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
@@ -4261,7 +4384,7 @@
         <v>13</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
@@ -4269,7 +4392,7 @@
         <v>13</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
@@ -4277,7 +4400,7 @@
         <v>13</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
@@ -4285,7 +4408,7 @@
         <v>13</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
@@ -4293,7 +4416,7 @@
         <v>13</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
@@ -4301,7 +4424,7 @@
         <v>13</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
@@ -4309,7 +4432,7 @@
         <v>13</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
@@ -4317,7 +4440,7 @@
         <v>13</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
@@ -4325,7 +4448,7 @@
         <v>13</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
@@ -4333,7 +4456,7 @@
         <v>13</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
@@ -4341,7 +4464,7 @@
         <v>13</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
@@ -4349,7 +4472,7 @@
         <v>13</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
@@ -4357,7 +4480,7 @@
         <v>13</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
@@ -4365,7 +4488,7 @@
         <v>13</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
@@ -4378,10 +4501,10 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
@@ -4389,7 +4512,7 @@
         <v>12</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
@@ -4397,7 +4520,7 @@
         <v>13</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
@@ -4405,7 +4528,7 @@
         <v>13</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
@@ -4413,7 +4536,7 @@
         <v>13</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
@@ -4421,7 +4544,7 @@
         <v>13</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
@@ -4429,7 +4552,7 @@
         <v>13</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
@@ -4437,7 +4560,7 @@
         <v>13</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
@@ -4445,7 +4568,7 @@
         <v>13</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
@@ -4453,7 +4576,7 @@
         <v>13</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
@@ -4461,7 +4584,7 @@
         <v>13</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
@@ -4469,7 +4592,7 @@
         <v>13</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
@@ -4477,7 +4600,7 @@
         <v>13</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
@@ -4485,7 +4608,7 @@
         <v>13</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
@@ -4493,7 +4616,7 @@
         <v>13</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
@@ -4501,7 +4624,7 @@
         <v>13</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
@@ -4509,7 +4632,7 @@
         <v>13</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
@@ -4517,7 +4640,7 @@
         <v>13</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
@@ -4525,7 +4648,7 @@
         <v>13</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
@@ -4541,7 +4664,7 @@
         <v>12</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
@@ -4549,7 +4672,7 @@
         <v>13</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
@@ -4557,7 +4680,7 @@
         <v>13</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
@@ -4565,7 +4688,7 @@
         <v>13</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
@@ -4573,7 +4696,7 @@
         <v>13</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
@@ -4581,7 +4704,7 @@
         <v>13</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
@@ -4589,7 +4712,7 @@
         <v>13</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
@@ -4597,7 +4720,7 @@
         <v>13</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
@@ -4605,7 +4728,7 @@
         <v>13</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
@@ -4613,7 +4736,7 @@
         <v>13</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
@@ -4621,7 +4744,7 @@
         <v>13</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
@@ -4629,7 +4752,7 @@
         <v>13</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
@@ -4637,7 +4760,7 @@
         <v>13</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
@@ -4645,7 +4768,7 @@
         <v>13</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
@@ -4653,7 +4776,7 @@
         <v>13</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
@@ -4661,7 +4784,7 @@
         <v>13</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
@@ -4669,7 +4792,7 @@
         <v>13</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
@@ -4677,7 +4800,7 @@
         <v>13</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
@@ -4685,7 +4808,7 @@
         <v>13</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
@@ -4693,7 +4816,7 @@
         <v>13</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
@@ -4701,7 +4824,7 @@
         <v>13</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
@@ -4709,7 +4832,7 @@
         <v>13</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
@@ -4717,7 +4840,7 @@
         <v>13</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
@@ -4725,7 +4848,7 @@
         <v>13</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
@@ -4733,7 +4856,7 @@
         <v>13</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
@@ -4741,7 +4864,7 @@
         <v>13</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
@@ -4749,7 +4872,7 @@
         <v>13</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
@@ -4765,7 +4888,7 @@
         <v>12</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
@@ -4773,7 +4896,7 @@
         <v>13</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
@@ -4781,7 +4904,7 @@
         <v>13</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
@@ -4789,7 +4912,7 @@
         <v>13</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
@@ -4797,7 +4920,7 @@
         <v>13</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
@@ -4805,7 +4928,7 @@
         <v>13</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
@@ -4813,7 +4936,7 @@
         <v>13</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
@@ -4821,7 +4944,7 @@
         <v>13</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.35">
@@ -4829,7 +4952,7 @@
         <v>13</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.35">
@@ -4837,7 +4960,7 @@
         <v>13</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.35">
@@ -4845,7 +4968,7 @@
         <v>13</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.35">
@@ -4853,7 +4976,7 @@
         <v>13</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.35">
@@ -4861,7 +4984,7 @@
         <v>13</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.35">
@@ -4869,7 +4992,7 @@
         <v>13</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.35">
@@ -4877,7 +5000,7 @@
         <v>13</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.35">
@@ -4885,7 +5008,7 @@
         <v>13</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.35">
@@ -4893,7 +5016,7 @@
         <v>13</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.35">
@@ -4901,7 +5024,7 @@
         <v>13</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.35">
@@ -4909,7 +5032,7 @@
         <v>13</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.35">
@@ -4917,7 +5040,7 @@
         <v>13</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
@@ -4925,7 +5048,7 @@
         <v>13</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.35">
@@ -4933,7 +5056,7 @@
         <v>13</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.35">
@@ -4949,7 +5072,7 @@
         <v>12</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.35">
@@ -4957,7 +5080,7 @@
         <v>13</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.35">
@@ -4965,7 +5088,7 @@
         <v>13</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.35">
@@ -4973,7 +5096,7 @@
         <v>13</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.35">
@@ -4981,7 +5104,7 @@
         <v>13</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.35">
@@ -4989,7 +5112,7 @@
         <v>13</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.35">
@@ -4997,7 +5120,7 @@
         <v>13</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.35">
@@ -5005,7 +5128,7 @@
         <v>13</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.35">
@@ -5013,7 +5136,7 @@
         <v>13</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.35">
@@ -5021,7 +5144,7 @@
         <v>13</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.35">
@@ -5029,7 +5152,7 @@
         <v>13</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.35">
@@ -5037,7 +5160,7 @@
         <v>13</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.35">
@@ -5045,7 +5168,7 @@
         <v>13</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.35">
@@ -5053,7 +5176,7 @@
         <v>13</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.35">
@@ -5061,7 +5184,7 @@
         <v>13</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.35">
@@ -5069,7 +5192,7 @@
         <v>13</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.35">
@@ -5077,7 +5200,7 @@
         <v>13</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.35">
@@ -5085,7 +5208,7 @@
         <v>13</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.35">
@@ -5093,7 +5216,7 @@
         <v>13</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.35">
@@ -5101,7 +5224,7 @@
         <v>13</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.35">
@@ -5109,7 +5232,7 @@
         <v>13</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.35">
@@ -5117,7 +5240,7 @@
         <v>13</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.35">
@@ -5125,7 +5248,7 @@
         <v>13</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.35">
@@ -5133,7 +5256,7 @@
         <v>13</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.35">
@@ -5141,7 +5264,7 @@
         <v>13</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.35">
@@ -5149,7 +5272,7 @@
         <v>13</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.35">
@@ -5165,7 +5288,7 @@
         <v>12</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.35">
@@ -5173,7 +5296,7 @@
         <v>13</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.35">
@@ -5181,7 +5304,7 @@
         <v>13</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.35">
@@ -5189,7 +5312,7 @@
         <v>13</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.35">
@@ -5197,7 +5320,7 @@
         <v>13</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.35">
@@ -5205,7 +5328,7 @@
         <v>13</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.35">
@@ -5213,7 +5336,7 @@
         <v>13</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
@@ -5227,7 +5350,7 @@
         <v>13</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
@@ -5241,7 +5364,7 @@
         <v>13</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
@@ -5255,7 +5378,7 @@
         <v>13</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
@@ -5269,7 +5392,7 @@
         <v>13</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C419" s="5"/>
       <c r="D419" s="5"/>
@@ -5283,7 +5406,7 @@
         <v>13</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C420" s="5"/>
       <c r="D420" s="5"/>
@@ -5297,7 +5420,7 @@
         <v>13</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
@@ -5311,7 +5434,7 @@
         <v>13</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
@@ -5325,7 +5448,7 @@
         <v>13</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C423" s="5"/>
       <c r="D423" s="5"/>
@@ -5339,7 +5462,7 @@
         <v>13</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C424" s="5"/>
       <c r="D424" s="5"/>
@@ -5353,7 +5476,7 @@
         <v>13</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C425" s="5"/>
       <c r="D425" s="5"/>
@@ -5367,7 +5490,7 @@
         <v>13</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C426" s="5"/>
       <c r="D426" s="5"/>
@@ -5381,7 +5504,7 @@
         <v>13</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C427" s="5"/>
       <c r="D427" s="5"/>
@@ -5395,7 +5518,7 @@
         <v>13</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C428" s="5"/>
       <c r="D428" s="5"/>
@@ -5409,7 +5532,7 @@
         <v>13</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.35">
@@ -5417,7 +5540,7 @@
         <v>13</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.35">
@@ -5425,7 +5548,7 @@
         <v>13</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.35">
@@ -5433,7 +5556,7 @@
         <v>13</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.35">
@@ -5441,7 +5564,7 @@
         <v>13</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.35">
@@ -5449,7 +5572,7 @@
         <v>13</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.35">
@@ -5457,7 +5580,7 @@
         <v>13</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.35">
@@ -5473,7 +5596,7 @@
         <v>12</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.35">
@@ -5481,7 +5604,7 @@
         <v>13</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.35">
@@ -5489,7 +5612,7 @@
         <v>13</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.35">
@@ -5497,7 +5620,7 @@
         <v>13</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.35">
@@ -5505,7 +5628,7 @@
         <v>13</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.35">
@@ -5513,7 +5636,7 @@
         <v>13</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.35">
@@ -5521,7 +5644,7 @@
         <v>13</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.35">
@@ -5529,7 +5652,7 @@
         <v>13</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.35">
@@ -5537,7 +5660,7 @@
         <v>13</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.35">
@@ -5545,7 +5668,7 @@
         <v>13</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.35">
@@ -5553,7 +5676,7 @@
         <v>13</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.35">
@@ -5561,7 +5684,7 @@
         <v>13</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.35">
@@ -5569,7 +5692,7 @@
         <v>13</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.35">
@@ -5577,7 +5700,7 @@
         <v>13</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.35">
@@ -5585,7 +5708,7 @@
         <v>13</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.35">
@@ -5593,7 +5716,7 @@
         <v>13</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.35">
@@ -5601,7 +5724,7 @@
         <v>13</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.35">
@@ -5609,7 +5732,7 @@
         <v>13</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.35">
@@ -5617,7 +5740,7 @@
         <v>13</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.35">
@@ -5625,7 +5748,7 @@
         <v>13</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.35">
@@ -5633,7 +5756,7 @@
         <v>13</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.35">
@@ -5641,7 +5764,7 @@
         <v>13</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.35">
@@ -5657,7 +5780,7 @@
         <v>12</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.35">
@@ -5665,7 +5788,7 @@
         <v>13</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.35">
@@ -5673,7 +5796,7 @@
         <v>13</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.35">
@@ -5681,7 +5804,7 @@
         <v>13</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.35">
@@ -5689,7 +5812,7 @@
         <v>13</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.35">
@@ -5697,7 +5820,7 @@
         <v>13</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.35">
@@ -5705,7 +5828,7 @@
         <v>13</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.35">
@@ -5713,7 +5836,7 @@
         <v>13</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.35">
@@ -5721,7 +5844,7 @@
         <v>13</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.35">
@@ -5729,7 +5852,7 @@
         <v>13</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.35">
@@ -5737,7 +5860,7 @@
         <v>13</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.35">
@@ -5745,7 +5868,7 @@
         <v>13</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.35">
@@ -5753,7 +5876,7 @@
         <v>13</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.35">
@@ -5761,7 +5884,7 @@
         <v>13</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.35">
@@ -5769,7 +5892,7 @@
         <v>13</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.35">
@@ -5777,7 +5900,7 @@
         <v>13</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.35">
@@ -5785,7 +5908,7 @@
         <v>13</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.35">
@@ -5801,7 +5924,7 @@
         <v>12</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.35">
@@ -5809,7 +5932,7 @@
         <v>13</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.35">
@@ -5817,7 +5940,7 @@
         <v>13</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.35">
@@ -5825,7 +5948,7 @@
         <v>13</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.35">
@@ -5833,7 +5956,7 @@
         <v>13</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.35">
@@ -5841,7 +5964,7 @@
         <v>13</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.35">
@@ -5849,7 +5972,7 @@
         <v>13</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.35">
@@ -5857,7 +5980,7 @@
         <v>13</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.35">
@@ -5865,7 +5988,7 @@
         <v>13</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.35">
@@ -5873,7 +5996,7 @@
         <v>13</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.35">
@@ -5881,7 +6004,7 @@
         <v>13</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.35">
@@ -5889,7 +6012,7 @@
         <v>13</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.35">
@@ -5897,7 +6020,7 @@
         <v>13</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.35">
@@ -5905,7 +6028,7 @@
         <v>13</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.35">
@@ -5913,7 +6036,7 @@
         <v>13</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.35">
@@ -5921,7 +6044,7 @@
         <v>13</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.35">
@@ -5929,7 +6052,7 @@
         <v>13</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.35">
@@ -5937,7 +6060,7 @@
         <v>13</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.35">
@@ -5945,7 +6068,7 @@
         <v>13</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.35">
@@ -5953,7 +6076,7 @@
         <v>13</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.35">
@@ -5969,7 +6092,7 @@
         <v>12</v>
       </c>
       <c r="B499" s="6" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.35">
@@ -5977,7 +6100,7 @@
         <v>13</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.35">
@@ -5985,7 +6108,7 @@
         <v>13</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.35">
@@ -5993,7 +6116,7 @@
         <v>13</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.35">
@@ -6001,7 +6124,7 @@
         <v>13</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.35">
@@ -6009,7 +6132,7 @@
         <v>13</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.35">
@@ -6017,7 +6140,7 @@
         <v>13</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.35">
@@ -6025,7 +6148,7 @@
         <v>13</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.35">
@@ -6033,7 +6156,7 @@
         <v>13</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.35">
@@ -6041,7 +6164,7 @@
         <v>13</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.35">
@@ -6049,7 +6172,7 @@
         <v>13</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.35">
@@ -6057,7 +6180,7 @@
         <v>13</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.35">
@@ -6065,7 +6188,7 @@
         <v>13</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.35">
@@ -6073,7 +6196,7 @@
         <v>13</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.35">
@@ -6081,7 +6204,7 @@
         <v>13</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.35">
@@ -6089,7 +6212,7 @@
         <v>13</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.35">
@@ -6097,7 +6220,7 @@
         <v>13</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.35">
@@ -6113,7 +6236,7 @@
         <v>12</v>
       </c>
       <c r="B517" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.35">
@@ -6121,7 +6244,7 @@
         <v>13</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.35">
@@ -6129,7 +6252,7 @@
         <v>13</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.35">
@@ -6137,7 +6260,7 @@
         <v>13</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.35">
@@ -6145,7 +6268,7 @@
         <v>13</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.35">
@@ -6153,7 +6276,7 @@
         <v>13</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.35">
@@ -6161,7 +6284,7 @@
         <v>13</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.35">
@@ -6169,7 +6292,7 @@
         <v>13</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.35">
@@ -6177,7 +6300,7 @@
         <v>13</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.35">
@@ -6185,7 +6308,7 @@
         <v>13</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.35">
@@ -6193,7 +6316,7 @@
         <v>13</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.35">
@@ -6201,7 +6324,7 @@
         <v>13</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.35">
@@ -6209,7 +6332,7 @@
         <v>13</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.35">
@@ -6217,7 +6340,7 @@
         <v>13</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.35">
@@ -6225,7 +6348,7 @@
         <v>13</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.35">
@@ -6233,7 +6356,7 @@
         <v>13</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.35">
@@ -6241,7 +6364,7 @@
         <v>13</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.35">
@@ -6249,7 +6372,7 @@
         <v>13</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.35">
@@ -6257,7 +6380,7 @@
         <v>13</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.35">
@@ -6265,7 +6388,7 @@
         <v>13</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.35">
@@ -6273,7 +6396,7 @@
         <v>13</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.35">
@@ -6281,7 +6404,7 @@
         <v>13</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.35">
@@ -6289,7 +6412,7 @@
         <v>13</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.35">
@@ -6297,7 +6420,7 @@
         <v>13</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.35">
@@ -6305,7 +6428,7 @@
         <v>13</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.35">
@@ -6313,7 +6436,7 @@
         <v>13</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.35">
@@ -6321,7 +6444,7 @@
         <v>13</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.35">
@@ -6329,7 +6452,7 @@
         <v>13</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.35">
@@ -6337,7 +6460,7 @@
         <v>13</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.35">
@@ -6353,7 +6476,7 @@
         <v>12</v>
       </c>
       <c r="B547" s="6" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.35">
@@ -6361,7 +6484,7 @@
         <v>13</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.35">
@@ -6369,7 +6492,7 @@
         <v>13</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.35">
@@ -6377,7 +6500,7 @@
         <v>13</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.35">
@@ -6385,7 +6508,7 @@
         <v>13</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.35">
@@ -6393,7 +6516,7 @@
         <v>13</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.35">
@@ -6401,7 +6524,7 @@
         <v>13</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.35">
@@ -6409,7 +6532,7 @@
         <v>13</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.35">
@@ -6417,7 +6540,7 @@
         <v>13</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.35">
@@ -6425,7 +6548,7 @@
         <v>13</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.35">
@@ -6433,7 +6556,7 @@
         <v>13</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.35">
@@ -6441,7 +6564,7 @@
         <v>13</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.35">
@@ -6449,7 +6572,7 @@
         <v>13</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.35">
@@ -6457,7 +6580,7 @@
         <v>13</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.35">
@@ -6465,7 +6588,7 @@
         <v>13</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.35">
@@ -6473,7 +6596,7 @@
         <v>13</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.35">
@@ -6481,7 +6604,7 @@
         <v>13</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.35">
@@ -6489,7 +6612,7 @@
         <v>13</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.35">
@@ -6497,7 +6620,7 @@
         <v>13</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.35">
@@ -6505,7 +6628,7 @@
         <v>13</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.35">
@@ -6513,7 +6636,7 @@
         <v>13</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.35">
@@ -6529,7 +6652,7 @@
         <v>12</v>
       </c>
       <c r="B569" s="6" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.35">
@@ -6537,7 +6660,7 @@
         <v>13</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.35">
@@ -6545,7 +6668,7 @@
         <v>13</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.35">
@@ -6553,7 +6676,7 @@
         <v>13</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.35">
@@ -6561,7 +6684,7 @@
         <v>13</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.35">
@@ -6569,7 +6692,7 @@
         <v>13</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.35">
@@ -6577,7 +6700,7 @@
         <v>13</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.35">
@@ -6585,7 +6708,7 @@
         <v>13</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.35">
@@ -6593,7 +6716,7 @@
         <v>13</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.35">
@@ -6601,7 +6724,7 @@
         <v>13</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.35">
@@ -6609,7 +6732,7 @@
         <v>13</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.35">
@@ -6617,7 +6740,7 @@
         <v>13</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.35">
@@ -6625,7 +6748,7 @@
         <v>13</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.35">
@@ -6633,7 +6756,7 @@
         <v>13</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.35">
@@ -6641,7 +6764,7 @@
         <v>13</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.35">
@@ -6649,7 +6772,7 @@
         <v>13</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.35">
@@ -6657,7 +6780,7 @@
         <v>13</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.35">
@@ -6665,7 +6788,7 @@
         <v>13</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.35">
@@ -6673,7 +6796,7 @@
         <v>13</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.35">
@@ -6681,7 +6804,7 @@
         <v>13</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.35">
@@ -6689,7 +6812,7 @@
         <v>13</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.35">
@@ -6697,7 +6820,7 @@
         <v>13</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.35">
@@ -6705,7 +6828,7 @@
         <v>13</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.35">
@@ -6721,7 +6844,7 @@
         <v>12</v>
       </c>
       <c r="B593" s="6" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.35">
@@ -6729,7 +6852,7 @@
         <v>13</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.35">
@@ -6737,7 +6860,7 @@
         <v>13</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.35">
@@ -6745,7 +6868,7 @@
         <v>13</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.35">
@@ -6753,7 +6876,7 @@
         <v>13</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.35">
@@ -6761,7 +6884,7 @@
         <v>13</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.35">
@@ -6769,7 +6892,7 @@
         <v>13</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.35">
@@ -6777,7 +6900,7 @@
         <v>13</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.35">
@@ -6785,7 +6908,7 @@
         <v>13</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.35">
@@ -6793,7 +6916,7 @@
         <v>13</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.35">
@@ -6801,7 +6924,7 @@
         <v>13</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.35">
@@ -6809,7 +6932,7 @@
         <v>13</v>
       </c>
       <c r="B604" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.35">
@@ -6817,7 +6940,7 @@
         <v>13</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.35">
@@ -6825,7 +6948,7 @@
         <v>13</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.35">
@@ -6833,7 +6956,7 @@
         <v>13</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.35">
@@ -6841,7 +6964,7 @@
         <v>13</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.35">
@@ -6849,7 +6972,7 @@
         <v>13</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.35">
@@ -6857,7 +6980,7 @@
         <v>13</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.35">
@@ -6865,7 +6988,7 @@
         <v>13</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.35">
@@ -6873,7 +6996,7 @@
         <v>13</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.35">
@@ -6889,7 +7012,7 @@
         <v>12</v>
       </c>
       <c r="B614" s="6" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.35">
@@ -6897,7 +7020,7 @@
         <v>13</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.35">
@@ -6905,7 +7028,7 @@
         <v>13</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.35">
@@ -6913,7 +7036,7 @@
         <v>13</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.35">
@@ -6921,7 +7044,7 @@
         <v>13</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.35">
@@ -6929,7 +7052,7 @@
         <v>13</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.35">
@@ -6937,7 +7060,7 @@
         <v>13</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.35">
@@ -6945,7 +7068,7 @@
         <v>13</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.35">
@@ -6953,7 +7076,7 @@
         <v>13</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.35">
@@ -6961,7 +7084,7 @@
         <v>13</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.35">
@@ -6969,7 +7092,7 @@
         <v>13</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.35">
@@ -6977,7 +7100,7 @@
         <v>13</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.35">
@@ -6985,7 +7108,7 @@
         <v>13</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.35">
@@ -6993,7 +7116,7 @@
         <v>13</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.35">
@@ -7001,7 +7124,7 @@
         <v>13</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.35">
@@ -7009,7 +7132,7 @@
         <v>13</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.35">
@@ -7025,7 +7148,7 @@
         <v>12</v>
       </c>
       <c r="B631" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.35">
@@ -7033,7 +7156,7 @@
         <v>13</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.35">
@@ -7041,7 +7164,7 @@
         <v>13</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.35">
@@ -7049,7 +7172,7 @@
         <v>13</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.35">
@@ -7057,7 +7180,7 @@
         <v>13</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.35">
@@ -7065,7 +7188,7 @@
         <v>13</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.35">
@@ -7073,7 +7196,7 @@
         <v>13</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.35">
@@ -7081,7 +7204,7 @@
         <v>13</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.35">
@@ -7089,7 +7212,7 @@
         <v>13</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.35">
@@ -7097,7 +7220,7 @@
         <v>13</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.35">
@@ -7105,7 +7228,7 @@
         <v>13</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.35">
@@ -7113,7 +7236,7 @@
         <v>13</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.35">
@@ -7121,7 +7244,7 @@
         <v>13</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.35">
@@ -7129,7 +7252,7 @@
         <v>13</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.35">
@@ -7137,7 +7260,7 @@
         <v>13</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.35">
@@ -7145,7 +7268,7 @@
         <v>13</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.35">
@@ -7153,7 +7276,7 @@
         <v>13</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.35">
@@ -7161,7 +7284,7 @@
         <v>13</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.35">
@@ -7169,7 +7292,7 @@
         <v>13</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.35">
@@ -7185,15 +7308,15 @@
         <v>10</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A652" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B652" s="6">
-        <v>6.1</v>
+      <c r="B652" s="6" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.35">
@@ -7201,20 +7324,23 @@
         <v>13</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A654" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B654" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A655" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>42</v>
+        <v>288</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.35">
@@ -7222,25 +7348,31 @@
         <v>13</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A657" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B657" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A658" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B658" s="1" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A659" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B659" s="4" t="s">
-        <v>45</v>
+      <c r="B659" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.35">
@@ -7248,15 +7380,15 @@
         <v>13</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A661" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B661" s="1" t="s">
-        <v>46</v>
+      <c r="B661" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.35">
@@ -7264,7 +7396,7 @@
         <v>13</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.35">
@@ -7272,7 +7404,7 @@
         <v>13</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.35">
@@ -7280,7 +7412,7 @@
         <v>13</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.35">
@@ -7288,7 +7420,7 @@
         <v>13</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.35">
@@ -7296,7 +7428,7 @@
         <v>13</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.35">
@@ -7304,36 +7436,39 @@
         <v>13</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>49</v>
+        <v>196</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A668" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A669" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B669" s="6">
-        <v>6.2</v>
+      <c r="A669" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A670" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A671" s="1" t="s">
-        <v>13</v>
+      <c r="A671" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B671" s="6" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.35">
@@ -7341,7 +7476,7 @@
         <v>13</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>42</v>
+        <v>303</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.35">
@@ -7349,33 +7484,39 @@
         <v>13</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A674" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B674" s="1" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A675" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B675" s="1" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A676" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B676" s="4" t="s">
-        <v>45</v>
+      <c r="B676" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A677" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B677" s="1" t="s">
-        <v>42</v>
+      <c r="B677" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.35">
@@ -7383,7 +7524,7 @@
         <v>13</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.35">
@@ -7391,7 +7532,7 @@
         <v>13</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.35">
@@ -7399,7 +7540,7 @@
         <v>13</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.35">
@@ -7407,7 +7548,7 @@
         <v>13</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.35">
@@ -7415,7 +7556,7 @@
         <v>13</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.35">
@@ -7423,7 +7564,7 @@
         <v>13</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>42</v>
+        <v>196</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.35">
@@ -7431,44 +7572,47 @@
         <v>13</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A685" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A686" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B685" s="1" t="s">
+      <c r="B686" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A686" s="6" t="s">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A687" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B686" s="6">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A687" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B687" s="1" t="s">
-        <v>41</v>
+      <c r="B687" s="6" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A688" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B688" s="1" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A689" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.35">
@@ -7476,33 +7620,39 @@
         <v>13</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>44</v>
+        <v>308</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A691" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B691" s="1" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A692" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B692" s="1" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A693" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B693" s="4" t="s">
-        <v>45</v>
+      <c r="B693" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A694" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B694" s="1" t="s">
-        <v>42</v>
+      <c r="B694" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.35">
@@ -7510,7 +7660,7 @@
         <v>13</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.35">
@@ -7518,7 +7668,7 @@
         <v>13</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.35">
@@ -7526,7 +7676,7 @@
         <v>13</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.35">
@@ -7534,7 +7684,7 @@
         <v>13</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.35">
@@ -7542,7 +7692,7 @@
         <v>13</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.35">
@@ -7550,7 +7700,7 @@
         <v>13</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>42</v>
+        <v>196</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.35">
@@ -7558,44 +7708,47 @@
         <v>13</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A702" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A703" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B702" s="1" t="s">
+      <c r="B703" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A703" s="6" t="s">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A704" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B703" s="6">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A704" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B704" s="1" t="s">
-        <v>41</v>
+      <c r="B704" s="6" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A705" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B705" s="1" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A706" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.35">
@@ -7603,25 +7756,31 @@
         <v>13</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>44</v>
+        <v>313</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A708" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B708" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A709" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B709" s="4" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A710" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B710" s="4" t="s">
-        <v>45</v>
+      <c r="B710" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.35">
@@ -7629,7 +7788,7 @@
         <v>13</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.35">
@@ -7637,7 +7796,7 @@
         <v>13</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.35">
@@ -7645,7 +7804,7 @@
         <v>13</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.35">
@@ -7653,7 +7812,7 @@
         <v>13</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.35">
@@ -7661,7 +7820,7 @@
         <v>13</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>42</v>
+        <v>196</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.35">
@@ -7669,7 +7828,7 @@
         <v>13</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.35">
@@ -7677,31 +7836,31 @@
         <v>13</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A718" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A719" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B719" s="1" t="s">
-        <v>15</v>
+      <c r="A719" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B719" s="6" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A720" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B720" s="6">
-        <v>6.5</v>
+      <c r="A720" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.35">
@@ -7716,13 +7875,16 @@
       <c r="A722" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B722" s="1" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A723" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>42</v>
+        <v>317</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.35">
@@ -7730,25 +7892,31 @@
         <v>13</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A725" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B725" s="4" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A726" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B726" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A727" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B727" s="4" t="s">
-        <v>45</v>
+      <c r="B727" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.35">
@@ -7756,7 +7924,7 @@
         <v>13</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.35">
@@ -7764,7 +7932,7 @@
         <v>13</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.35">
@@ -7772,7 +7940,7 @@
         <v>13</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.35">
@@ -7780,7 +7948,7 @@
         <v>13</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.35">
@@ -7788,7 +7956,7 @@
         <v>13</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.35">
@@ -7796,39 +7964,39 @@
         <v>13</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A734" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A735" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B735" s="1" t="s">
-        <v>49</v>
+      <c r="A735" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B735" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A736" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A737" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B737" s="6">
-        <v>6.6</v>
+      <c r="A737" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.35">
@@ -7836,20 +8004,23 @@
         <v>13</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>41</v>
+        <v>281</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A739" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B739" s="1" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A740" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>42</v>
+        <v>320</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.35">
@@ -7857,25 +8028,31 @@
         <v>13</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A742" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B742" s="1" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A743" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B743" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A744" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B744" s="4" t="s">
-        <v>45</v>
+      <c r="B744" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.35">
@@ -7883,7 +8060,7 @@
         <v>13</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>42</v>
+        <v>324</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.35">
@@ -7891,7 +8068,7 @@
         <v>13</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>46</v>
+        <v>325</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.35">
@@ -7899,15 +8076,15 @@
         <v>13</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>42</v>
+        <v>326</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A748" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B748" s="1" t="s">
-        <v>47</v>
+      <c r="B748" s="4" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.35">
@@ -7915,15 +8092,15 @@
         <v>13</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A750" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B750" s="1" t="s">
-        <v>48</v>
+      <c r="B750" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.35">
@@ -7931,7 +8108,7 @@
         <v>13</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.35">
@@ -7939,23 +8116,23 @@
         <v>13</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A753" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A754" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B754" s="6">
-        <v>6.7</v>
+      <c r="A754" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.35">
@@ -7970,13 +8147,16 @@
       <c r="A756" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B756" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A757" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.35">
@@ -7984,25 +8164,31 @@
         <v>13</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A759" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A760" s="1" t="s">
-        <v>13</v>
+      <c r="A760" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B760" s="6" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A761" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B761" s="4" t="s">
-        <v>45</v>
+      <c r="B761" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.35">
@@ -8010,7 +8196,7 @@
         <v>13</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>42</v>
+        <v>280</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.35">
@@ -8018,7 +8204,7 @@
         <v>13</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>46</v>
+        <v>329</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.35">
@@ -8026,7 +8212,7 @@
         <v>13</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>42</v>
+        <v>330</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.35">
@@ -8034,7 +8220,7 @@
         <v>13</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>47</v>
+        <v>331</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.35">
@@ -8042,7 +8228,7 @@
         <v>13</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>42</v>
+        <v>332</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.35">
@@ -8050,7 +8236,7 @@
         <v>13</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.35">
@@ -8058,7 +8244,7 @@
         <v>13</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>42</v>
+        <v>333</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.35">
@@ -8066,23 +8252,23 @@
         <v>13</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>49</v>
+        <v>335</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A770" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>15</v>
+        <v>336</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A771" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B771" s="6">
-        <v>6.8</v>
+      <c r="A771" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.35">
@@ -8097,13 +8283,16 @@
       <c r="A773" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B773" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A774" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.35">
@@ -8111,25 +8300,31 @@
         <v>13</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>44</v>
+        <v>342</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A776" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B776" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A777" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B777" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A778" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B778" s="4" t="s">
-        <v>45</v>
+      <c r="B778" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.35">
@@ -8137,7 +8332,7 @@
         <v>13</v>
       </c>
       <c r="B779" s="1" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.35">
@@ -8145,7 +8340,7 @@
         <v>13</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.35">
@@ -8153,23 +8348,23 @@
         <v>13</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A782" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A783" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B783" s="1" t="s">
-        <v>42</v>
+      <c r="A783" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B783" s="6" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.35">
@@ -8177,7 +8372,7 @@
         <v>13</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>48</v>
+        <v>208</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.35">
@@ -8185,7 +8380,7 @@
         <v>13</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.35">
@@ -8193,23 +8388,23 @@
         <v>13</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>49</v>
+        <v>344</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A787" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A788" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B788" s="6">
-        <v>6.9</v>
+      <c r="A788" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.35">
@@ -8217,20 +8412,23 @@
         <v>13</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A790" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B790" s="1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A791" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>42</v>
+        <v>212</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.35">
@@ -8238,25 +8436,31 @@
         <v>13</v>
       </c>
       <c r="B792" s="1" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A793" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B793" s="1" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A794" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B794" s="1" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A795" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B795" s="4" t="s">
-        <v>45</v>
+      <c r="B795" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.35">
@@ -8264,15 +8468,15 @@
         <v>13</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A797" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B797" s="1" t="s">
-        <v>46</v>
+      <c r="B797" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.35">
@@ -8280,7 +8484,7 @@
         <v>13</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.35">
@@ -8288,7 +8492,7 @@
         <v>13</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.35">
@@ -8296,7 +8500,7 @@
         <v>13</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.35">
@@ -8304,7 +8508,7 @@
         <v>13</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.35">
@@ -8312,7 +8516,7 @@
         <v>13</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.35">
@@ -8320,67 +8524,203 @@
         <v>13</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>49</v>
+        <v>218</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A804" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A805" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A806" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B804" s="1" t="s">
+      <c r="B806" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A805" s="5" t="s">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A807" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B805" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A806" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B806" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A807" s="5" t="s">
+      <c r="B807" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A808" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A809" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A810" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A811" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A812" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B812" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A813" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A814" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A815" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A816" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A817" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A818" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A819" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A820" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A821" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B807" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A808" s="5" t="s">
+      <c r="B821" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A822" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B822" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A823" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B823" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A824" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B808" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A809" s="5" t="s">
+      <c r="B824" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A825" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B809" s="5" t="s">
+      <c r="B825" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A826" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B826" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A810" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B810" s="5" t="s">
-        <v>57</v>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A827" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B827" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I810" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I827" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
